--- a/공부 계획.xlsx
+++ b/공부 계획.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{B37AB18F-2C2B-4646-A6FF-6618A97E1BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B68C42-942D-4B8A-9417-0C8601F08424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="94">
   <si>
     <t>완료율</t>
   </si>
@@ -459,6 +459,18 @@
     </r>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
+  <si>
+    <t>당면 과제: ADsP / SQLD / HTML + 장고</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">하고 싶은 것: 알고리즘 / CPP / 자바 / </t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>해야 하는 것: 네트워크-정리 / 데이터 베이스 / 컴퓨터 구조</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -471,8 +483,8 @@
     <numFmt numFmtId="179" formatCode="_(&quot;₫&quot;* #,##0.00_);_(&quot;₫&quot;* \(#,##0.00\);_(&quot;₫&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="180" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="181" formatCode="yy&quot;年&quot;\ m&quot;月&quot;\ d&quot;日&quot;;@"/>
-    <numFmt numFmtId="184" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="185" formatCode="h:mm;@"/>
+    <numFmt numFmtId="182" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="183" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -1444,7 +1456,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="183" fontId="24" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
@@ -1458,189 +1470,192 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="22" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="21" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="28" fillId="42" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="41" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="41" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="41" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="28" fillId="43" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="43" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="28" fillId="43" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="43" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="28" fillId="43" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="43" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="28" fillId="42" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="28" fillId="43" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="43" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="28" fillId="43" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="28" fillId="43" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="40" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="40" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="43" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="43" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="43" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="43" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="43" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="43" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="41" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="41" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="41" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="22" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="21" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="35" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="28" fillId="42" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="41" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="41" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="41" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="28" fillId="43" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="28" fillId="43" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="40" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="40" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="40" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="40" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="40" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="40" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="40" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="41" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="41" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="41" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="28" fillId="43" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="28" fillId="42" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="28" fillId="43" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="40" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="40" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="40" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="40" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="40" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="28" fillId="43" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="28" fillId="43" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="40" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="40" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1704,174 +1719,6 @@
   <dxfs count="49">
     <dxf>
       <font>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="medium">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical style="thin">
-          <color theme="0"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-        <horizontal style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="medium">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <vertical style="thin">
-          <color theme="0"/>
-        </vertical>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-        <horizontal style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1961,7 +1808,7 @@
         <charset val="129"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="184" formatCode="0_);[Red]\(0\)"/>
+      <numFmt numFmtId="182" formatCode="0_);[Red]\(0\)"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2094,7 +1941,7 @@
         <charset val="129"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="184" formatCode="0_);[Red]\(0\)"/>
+      <numFmt numFmtId="182" formatCode="0_);[Red]\(0\)"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2227,7 +2074,7 @@
         <charset val="129"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="184" formatCode="0_);[Red]\(0\)"/>
+      <numFmt numFmtId="182" formatCode="0_);[Red]\(0\)"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2258,7 +2105,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <name val="배달의민족 을지로체 TTF"/>
         <family val="3"/>
         <charset val="129"/>
@@ -2282,7 +2129,6 @@
         <charset val="129"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2325,24 +2171,7 @@
         <charset val="129"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="배달의민족 을지로체 TTF"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="none"/>
-      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2378,7 +2207,7 @@
         <charset val="129"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="184" formatCode="0_);[Red]\(0\)"/>
+      <numFmt numFmtId="182" formatCode="0_);[Red]\(0\)"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2401,6 +2230,24 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color rgb="FF000000"/>
+        <name val="배달의민족 을지로체 TTF"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -2495,30 +2342,198 @@
         </horizontal>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical style="thin">
+          <color theme="0"/>
+        </vertical>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical style="thin">
+          <color theme="0"/>
+        </vertical>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </horizontal>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="3" defaultTableStyle="프로젝트의 할 일 모음">
     <tableStyle name="수업 시간표" pivot="0" count="5" xr9:uid="{233FA0DD-6733-4AE3-A01D-EF1E75B03312}">
-      <tableStyleElement type="wholeTable" dxfId="9"/>
-      <tableStyleElement type="headerRow" dxfId="8"/>
-      <tableStyleElement type="totalRow" dxfId="7"/>
-      <tableStyleElement type="lastColumn" dxfId="6"/>
-      <tableStyleElement type="firstRowStripe" dxfId="5"/>
-    </tableStyle>
-    <tableStyle name="수업 시간표 2" pivot="0" count="5" xr9:uid="{7BC60B1A-DAA0-40BE-96AE-656492672F24}">
-      <tableStyleElement type="wholeTable" dxfId="4"/>
-      <tableStyleElement type="headerRow" dxfId="3"/>
-      <tableStyleElement type="totalRow" dxfId="2"/>
-      <tableStyleElement type="lastColumn" dxfId="1"/>
-      <tableStyleElement type="firstRowStripe" dxfId="0"/>
-    </tableStyle>
-    <tableStyle name="프로젝트의 할 일 모음" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="48"/>
       <tableStyleElement type="headerRow" dxfId="47"/>
       <tableStyleElement type="totalRow" dxfId="46"/>
-      <tableStyleElement type="firstColumn" dxfId="45"/>
-      <tableStyleElement type="lastColumn" dxfId="44"/>
-      <tableStyleElement type="firstRowStripe" dxfId="43"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="42"/>
+      <tableStyleElement type="lastColumn" dxfId="45"/>
+      <tableStyleElement type="firstRowStripe" dxfId="44"/>
+    </tableStyle>
+    <tableStyle name="수업 시간표 2" pivot="0" count="5" xr9:uid="{7BC60B1A-DAA0-40BE-96AE-656492672F24}">
+      <tableStyleElement type="wholeTable" dxfId="43"/>
+      <tableStyleElement type="headerRow" dxfId="42"/>
+      <tableStyleElement type="totalRow" dxfId="41"/>
+      <tableStyleElement type="lastColumn" dxfId="40"/>
+      <tableStyleElement type="firstRowStripe" dxfId="39"/>
+    </tableStyle>
+    <tableStyle name="프로젝트의 할 일 모음" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="wholeTable" dxfId="38"/>
+      <tableStyleElement type="headerRow" dxfId="37"/>
+      <tableStyleElement type="totalRow" dxfId="36"/>
+      <tableStyleElement type="firstColumn" dxfId="35"/>
+      <tableStyleElement type="lastColumn" dxfId="34"/>
+      <tableStyleElement type="firstRowStripe" dxfId="33"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="32"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2542,18 +2557,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7CB381CB-7543-4F01-8068-54DAA3311BF5}" name="프로젝트15" displayName="프로젝트15" ref="B4:G15" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7CB381CB-7543-4F01-8068-54DAA3311BF5}" name="프로젝트15" displayName="프로젝트15" ref="B4:G15" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="B4:G15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:G14">
     <sortCondition ref="C4:C15"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{16974788-FDD3-4759-AF66-39A68182E7A5}" name="완료율" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{14F8178A-44BE-47AE-BF26-8C10F8E7BE0F}" name="우선 순위" dataDxfId="30" dataCellStyle="백분율"/>
-    <tableColumn id="2" xr3:uid="{038CF94D-9F2A-46D4-ABCD-34EB6B81AF97}" name="목표" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{30B1BC36-2AB5-42BD-AE44-F5B01BB8E140}" name="수행 방법" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{B16FE1D8-A2E9-4E2D-81B2-B85A910CF783}" name="목표 기한" dataDxfId="27" dataCellStyle="날짜"/>
-    <tableColumn id="4" xr3:uid="{76E5C2D0-A134-4DED-9B33-92F1EDD57765}" name="추가 사항" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{16974788-FDD3-4759-AF66-39A68182E7A5}" name="완료율" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{14F8178A-44BE-47AE-BF26-8C10F8E7BE0F}" name="우선 순위" dataDxfId="28" dataCellStyle="백분율"/>
+    <tableColumn id="2" xr3:uid="{038CF94D-9F2A-46D4-ABCD-34EB6B81AF97}" name="목표" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{30B1BC36-2AB5-42BD-AE44-F5B01BB8E140}" name="수행 방법" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{B16FE1D8-A2E9-4E2D-81B2-B85A910CF783}" name="목표 기한" dataDxfId="25" dataCellStyle="날짜"/>
+    <tableColumn id="4" xr3:uid="{76E5C2D0-A134-4DED-9B33-92F1EDD57765}" name="추가 사항" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="프로젝트의 할 일 모음" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2565,18 +2580,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="프로젝트1" displayName="프로젝트1" ref="B4:G13" totalsRowShown="0" headerRowDxfId="37" dataDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="프로젝트1" displayName="프로젝트1" ref="B4:G13" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="B4:G13" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:G13">
     <sortCondition ref="C4:C13"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="완료율" dataDxfId="41"/>
-    <tableColumn id="5" xr3:uid="{3C2C9303-650E-4CEB-BB08-8B08BFE5CAF4}" name="우선 순위" dataDxfId="40" dataCellStyle="백분율"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="목표" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="수행 방법" dataDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{BCCFF7CA-64DD-4C9E-BEC3-8CDBAC4FC296}" name="목표 기한" dataDxfId="35" dataCellStyle="날짜"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="추가 사항" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="완료율" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{3C2C9303-650E-4CEB-BB08-8B08BFE5CAF4}" name="우선 순위" dataDxfId="20" dataCellStyle="백분율"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="목표" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="수행 방법" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{BCCFF7CA-64DD-4C9E-BEC3-8CDBAC4FC296}" name="목표 기한" dataDxfId="17" dataCellStyle="날짜"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="추가 사항" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="프로젝트의 할 일 모음" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2588,18 +2603,18 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{212A2F1A-44AF-469E-B704-968F7947BBE6}" name="프로젝트157" displayName="프로젝트157" ref="B4:G13" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{212A2F1A-44AF-469E-B704-968F7947BBE6}" name="프로젝트157" displayName="프로젝트157" ref="B4:G13" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="B4:G13" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:G13">
     <sortCondition ref="C4:C13"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{8A12D497-B2E1-4922-AD00-9924BD87D159}" name="완료율" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{E5D6D197-59E3-4928-8FBD-249095A285F2}" name="우선 순위" dataDxfId="14" dataCellStyle="백분율"/>
-    <tableColumn id="2" xr3:uid="{519E77A1-8236-48A1-89E7-F9DCBF1559B3}" name="목표" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{BAB52B60-FAEC-4384-AB3C-CB207F6376F2}" name="수행 방법" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{D7CCE302-1170-49D6-9E3C-6E033ABCD855}" name="목표 기한" dataDxfId="11" dataCellStyle="날짜"/>
-    <tableColumn id="4" xr3:uid="{0540F153-7855-4818-80A9-3FC1C043AD10}" name="추가 사항" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{8A12D497-B2E1-4922-AD00-9924BD87D159}" name="완료율" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{E5D6D197-59E3-4928-8FBD-249095A285F2}" name="우선 순위" dataDxfId="12" dataCellStyle="백분율"/>
+    <tableColumn id="2" xr3:uid="{519E77A1-8236-48A1-89E7-F9DCBF1559B3}" name="목표" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{BAB52B60-FAEC-4384-AB3C-CB207F6376F2}" name="수행 방법" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{D7CCE302-1170-49D6-9E3C-6E033ABCD855}" name="목표 기한" dataDxfId="9" dataCellStyle="날짜"/>
+    <tableColumn id="4" xr3:uid="{0540F153-7855-4818-80A9-3FC1C043AD10}" name="추가 사항" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="프로젝트의 할 일 모음" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2611,18 +2626,18 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{286FCF13-81AF-46C3-8A7E-3C9067AC81E1}" name="프로젝트156" displayName="프로젝트156" ref="B4:G13" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{286FCF13-81AF-46C3-8A7E-3C9067AC81E1}" name="프로젝트156" displayName="프로젝트156" ref="B4:G13" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="B4:G13" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:G13">
     <sortCondition ref="C4:C13"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{EE20D6FA-49FA-4F37-A713-58B258C3C5C2}" name="완료율" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{5E65EC2D-1070-4C73-9263-ECF717A3B22B}" name="우선 순위" dataDxfId="22" dataCellStyle="백분율"/>
-    <tableColumn id="2" xr3:uid="{3C266911-F9B4-45E7-A82D-7B3A9321D9DD}" name="목표" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{A5FF5059-0450-4474-BCD2-D7E063A0B9BD}" name="수행 방법" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{170E4163-7691-4B37-B4D7-8A48477F9882}" name="목표 기한" dataDxfId="19" dataCellStyle="날짜"/>
-    <tableColumn id="4" xr3:uid="{40A2E672-86D7-444C-8ACF-D0878E230947}" name="추가 사항" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{EE20D6FA-49FA-4F37-A713-58B258C3C5C2}" name="완료율" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{5E65EC2D-1070-4C73-9263-ECF717A3B22B}" name="우선 순위" dataDxfId="4" dataCellStyle="백분율"/>
+    <tableColumn id="2" xr3:uid="{3C266911-F9B4-45E7-A82D-7B3A9321D9DD}" name="목표" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{A5FF5059-0450-4474-BCD2-D7E063A0B9BD}" name="수행 방법" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{170E4163-7691-4B37-B4D7-8A48477F9882}" name="목표 기한" dataDxfId="1" dataCellStyle="날짜"/>
+    <tableColumn id="4" xr3:uid="{40A2E672-86D7-444C-8ACF-D0878E230947}" name="추가 사항" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="프로젝트의 할 일 모음" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2977,10 +2992,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192CCE16-5A45-46A4-87B5-F284EC163D4E}">
-  <dimension ref="B1:J27"/>
+  <dimension ref="B1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2989,508 +3004,577 @@
     <col min="4" max="10" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="17.25" thickBot="1"/>
-    <row r="2" spans="2:10" ht="49.5" customHeight="1" thickTop="1">
-      <c r="B2" s="40" t="s">
+    <row r="1" spans="2:18" ht="17.25" thickBot="1"/>
+    <row r="2" spans="2:18" ht="49.5" customHeight="1" thickTop="1">
+      <c r="B2" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="42"/>
-    </row>
-    <row r="3" spans="2:10" ht="15" customHeight="1">
-      <c r="B3" s="38" t="s">
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="55"/>
+      <c r="L2" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+    </row>
+    <row r="3" spans="2:18" ht="15" customHeight="1">
+      <c r="B3" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36"/>
-    </row>
-    <row r="4" spans="2:10" ht="17.25" thickBot="1">
-      <c r="B4" s="39" t="s">
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="30"/>
+      <c r="L3" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
+    </row>
+    <row r="4" spans="2:18" ht="17.25" thickBot="1">
+      <c r="B4" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="37"/>
-    </row>
-    <row r="5" spans="2:10" ht="18" thickTop="1" thickBot="1">
-      <c r="B5" s="16" t="s">
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="27"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="64"/>
+    </row>
+    <row r="5" spans="2:18" ht="18" thickTop="1" thickBot="1">
+      <c r="B5" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="J5" s="13" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="6" spans="2:10" ht="17.25" thickTop="1">
-      <c r="B6" s="43">
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+    </row>
+    <row r="6" spans="2:18" ht="17.25" thickTop="1">
+      <c r="B6" s="18">
         <v>0.29166666666666669</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="14">
         <v>0.3611111111111111</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="J6" s="44" t="s">
+      <c r="J6" s="19" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="B7" s="45">
+      <c r="L6" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="64"/>
+    </row>
+    <row r="7" spans="2:18">
+      <c r="B7" s="20">
         <v>0.35416666666666669</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="10">
         <v>0.375</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="I7" s="26" t="s">
+      <c r="I7" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="J7" s="46" t="s">
+      <c r="J7" s="56" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="47">
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="64"/>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="64"/>
+    </row>
+    <row r="8" spans="2:18">
+      <c r="B8" s="21">
         <v>0.375</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="16">
         <v>0.41666666666666702</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="I8" s="28"/>
-      <c r="J8" s="48"/>
-    </row>
-    <row r="9" spans="2:10">
-      <c r="B9" s="45">
+      <c r="I8" s="51"/>
+      <c r="J8" s="57"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="64"/>
+      <c r="O8" s="64"/>
+      <c r="P8" s="64"/>
+      <c r="Q8" s="64"/>
+      <c r="R8" s="64"/>
+    </row>
+    <row r="9" spans="2:18">
+      <c r="B9" s="20">
         <v>0.41666666666666702</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="10">
         <v>0.45833333333333298</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="48"/>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="47">
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="57"/>
+    </row>
+    <row r="10" spans="2:18">
+      <c r="B10" s="21">
         <v>0.45833333333333298</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="16">
         <v>0.5</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="49"/>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="B11" s="45">
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="58"/>
+    </row>
+    <row r="11" spans="2:18">
+      <c r="B11" s="20">
         <v>0.5</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="10">
         <v>0.54166666666666696</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="22" t="s">
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="J11" s="50" t="s">
+      <c r="J11" s="22" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
-      <c r="B12" s="47">
+    <row r="12" spans="2:18">
+      <c r="B12" s="21">
         <v>0.54166666666666696</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="16">
         <v>0.58333333333333304</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="29" t="s">
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="J12" s="51" t="s">
+      <c r="J12" s="31" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="2:10">
-      <c r="B13" s="45">
+    <row r="13" spans="2:18">
+      <c r="B13" s="20">
         <v>0.58333333333333304</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="10">
         <v>0.625</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="52"/>
-    </row>
-    <row r="14" spans="2:10">
-      <c r="B14" s="47">
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="32"/>
+    </row>
+    <row r="14" spans="2:18">
+      <c r="B14" s="21">
         <v>0.625</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="16">
         <v>0.66666666666666696</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="52"/>
-    </row>
-    <row r="15" spans="2:10">
-      <c r="B15" s="45">
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="32"/>
+    </row>
+    <row r="15" spans="2:18">
+      <c r="B15" s="20">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="10">
         <v>0.70833333333333304</v>
       </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="52"/>
-    </row>
-    <row r="16" spans="2:10">
-      <c r="B16" s="47">
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="32"/>
+    </row>
+    <row r="16" spans="2:18">
+      <c r="B16" s="21">
         <v>0.70833333333333304</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="16">
         <v>0.75</v>
       </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="53"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="33"/>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="45">
+      <c r="B17" s="20">
         <v>0.75</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="10">
         <v>0.79166666666666696</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="G17" s="26" t="s">
+      <c r="G17" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="H17" s="26" t="s">
+      <c r="H17" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="I17" s="22" t="s">
+      <c r="I17" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="J17" s="50" t="s">
+      <c r="J17" s="22" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="47">
+      <c r="B18" s="21">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="16">
         <v>0.83333333333333304</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="E18" s="27"/>
-      <c r="F18" s="23" t="s">
+      <c r="E18" s="52"/>
+      <c r="F18" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="29" t="s">
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="J18" s="51" t="s">
+      <c r="J18" s="31" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="45">
+      <c r="B19" s="20">
         <v>0.83333333333333304</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="10">
         <v>0.875</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="23" t="s">
+      <c r="D19" s="44"/>
+      <c r="E19" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="F19" s="24"/>
-      <c r="G19" s="23" t="s">
+      <c r="F19" s="44"/>
+      <c r="G19" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="H19" s="23" t="s">
+      <c r="H19" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="I19" s="30"/>
-      <c r="J19" s="52"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="32"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="47">
+      <c r="B20" s="21">
         <v>0.875</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="16">
         <v>0.91666666666666696</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="53"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="33"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="45">
+      <c r="B21" s="20">
         <v>0.91666666666666696</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="10">
         <v>0.95833333333333304</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="G21" s="26" t="s">
+      <c r="G21" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="H21" s="26" t="s">
+      <c r="H21" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="I21" s="23" t="s">
+      <c r="I21" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="J21" s="54" t="s">
+      <c r="J21" s="46" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="47">
+      <c r="B22" s="21">
         <v>0.95833333333333304</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="16">
         <v>1</v>
       </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="55"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="47"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="45">
+      <c r="B23" s="20">
         <v>1</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="10">
         <v>1.0416666666666701</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="E23" s="23" t="s">
+      <c r="E23" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="F23" s="23" t="s">
+      <c r="F23" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="G23" s="23" t="s">
+      <c r="G23" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="H23" s="23" t="s">
+      <c r="H23" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="I23" s="25"/>
-      <c r="J23" s="56"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="48"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="47">
+      <c r="B24" s="21">
         <v>1.0416666666666701</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="16">
         <v>1.0833333333333299</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="32" t="s">
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="J24" s="57"/>
+      <c r="J24" s="38"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="45">
+      <c r="B25" s="20">
         <v>1.0833333333333299</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="10">
         <v>1.125</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="D25" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="E25" s="26" t="s">
+      <c r="E25" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="F25" s="26" t="s">
+      <c r="F25" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="G25" s="26" t="s">
+      <c r="G25" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="H25" s="26" t="s">
+      <c r="H25" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="I25" s="33"/>
-      <c r="J25" s="58"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="40"/>
     </row>
     <row r="26" spans="2:10" ht="17.25" thickBot="1">
-      <c r="B26" s="59">
+      <c r="B26" s="23">
         <v>1.125</v>
       </c>
-      <c r="C26" s="60">
+      <c r="C26" s="24">
         <v>1.1666666666666701</v>
       </c>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="63"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="42"/>
     </row>
     <row r="27" spans="2:10" ht="17.25" thickTop="1"/>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="J12:J16"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:J20"/>
+  <mergeCells count="43">
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="L3:R5"/>
+    <mergeCell ref="L6:R8"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="D8:D16"/>
+    <mergeCell ref="E8:E16"/>
+    <mergeCell ref="F8:F16"/>
+    <mergeCell ref="G8:G16"/>
+    <mergeCell ref="H8:H16"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
     <mergeCell ref="I24:J26"/>
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="J21:J23"/>
@@ -3499,8 +3583,6 @@
     <mergeCell ref="F25:F26"/>
     <mergeCell ref="G25:G26"/>
     <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="I12:I16"/>
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="E21:E22"/>
     <mergeCell ref="F21:F22"/>
@@ -3509,23 +3591,14 @@
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="J12:J16"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="I12:I16"/>
     <mergeCell ref="D18:D20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="D8:D16"/>
-    <mergeCell ref="E8:E16"/>
-    <mergeCell ref="F8:F16"/>
-    <mergeCell ref="G8:G16"/>
-    <mergeCell ref="H8:H16"/>
-    <mergeCell ref="J7:J10"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3556,239 +3629,239 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" s="1" customFormat="1" ht="42.75" customHeight="1">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
     </row>
     <row r="2" spans="2:7" ht="15" customHeight="1"/>
     <row r="3" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
     </row>
     <row r="4" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>0.05</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>0.05</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>1</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>0.5</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>3</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>0.1</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>3</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>0.5</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>5</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="10" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>0.2</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>5</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="11" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>0</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>5</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="12" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>0</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>8</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="13" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>0</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>9</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="7"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
     </row>
     <row r="14" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>0</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>10</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="7"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="6"/>
     </row>
     <row r="15" spans="2:7" s="1" customFormat="1" ht="30" hidden="1" customHeight="1">
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>1</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>9</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="7"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3860,181 +3933,181 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" s="1" customFormat="1" ht="42.75" customHeight="1">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
     </row>
     <row r="2" spans="2:7" ht="15" customHeight="1"/>
     <row r="3" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
     </row>
     <row r="4" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>0.2</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>0.05</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>2</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>0.5</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>3</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="7"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>0.2</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>4</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>0</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>5</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
     </row>
     <row r="10" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>0</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>6</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="7"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
     </row>
     <row r="11" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>0</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>7</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="7"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>0</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>8</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="7"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" spans="2:7" s="1" customFormat="1" ht="30" hidden="1" customHeight="1">
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>1</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>9</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="7"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4106,175 +4179,175 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" s="1" customFormat="1" ht="42.75" customHeight="1">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
     </row>
     <row r="2" spans="2:7" ht="15" customHeight="1"/>
     <row r="3" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
     </row>
     <row r="4" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>0.1</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>0</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>1</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>0</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>1</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>0</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>4</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>0</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>5</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
     </row>
     <row r="10" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>0</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>6</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="7"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
     </row>
     <row r="11" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>0</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>7</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="7"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>0</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>8</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="7"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" spans="2:7" s="1" customFormat="1" ht="30" hidden="1" customHeight="1">
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>1</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>9</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="7"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4346,175 +4419,175 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" s="1" customFormat="1" ht="42.75" customHeight="1">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
     </row>
     <row r="2" spans="2:7" ht="15" customHeight="1"/>
     <row r="3" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
     </row>
     <row r="4" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>0</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>0.02</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>2</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>0</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>3</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>0</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>4</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>0</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>5</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
     </row>
     <row r="10" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>0</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>6</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="7"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
     </row>
     <row r="11" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>0</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>7</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="7"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>0</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>8</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="7"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" spans="2:7" s="1" customFormat="1" ht="30" hidden="1" customHeight="1">
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>1</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>9</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="7"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/공부 계획.xlsx
+++ b/공부 계획.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B68C42-942D-4B8A-9417-0C8601F08424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1B05B8-BBB6-4382-A7C7-5CAAAAC05E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet9" sheetId="14" r:id="rId1"/>
@@ -1546,6 +1546,72 @@
     <xf numFmtId="183" fontId="28" fillId="43" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="41" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="41" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="41" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="43" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="43" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="43" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="43" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="43" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="43" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1582,70 +1648,7 @@
     <xf numFmtId="0" fontId="28" fillId="40" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="40" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="40" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="40" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="40" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="40" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="40" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="41" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="41" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="41" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1655,9 +1658,6 @@
     <xf numFmtId="0" fontId="10" fillId="36" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="38" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="35" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="55">
     <cellStyle name="20% - 강조색1" xfId="25" builtinId="30" customBuiltin="1"/>
@@ -2994,8 +2994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192CCE16-5A45-46A4-87B5-F284EC163D4E}">
   <dimension ref="B1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3006,68 +3006,68 @@
   <sheetData>
     <row r="1" spans="2:18" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:18" ht="49.5" customHeight="1" thickTop="1">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="55"/>
-      <c r="L2" s="64" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="28"/>
+      <c r="L2" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
     </row>
     <row r="3" spans="2:18" ht="15" customHeight="1">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="30"/>
-      <c r="L3" s="64" t="s">
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="52"/>
+      <c r="L3" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
     </row>
     <row r="4" spans="2:18" ht="17.25" thickBot="1">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="27"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="64"/>
-      <c r="P4" s="64"/>
-      <c r="Q4" s="64"/>
-      <c r="R4" s="64"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="49"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
     </row>
     <row r="5" spans="2:18" ht="18" thickTop="1" thickBot="1">
       <c r="B5" s="11" t="s">
@@ -3097,13 +3097,13 @@
       <c r="J5" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="64"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
     </row>
     <row r="6" spans="2:18" ht="17.25" thickTop="1">
       <c r="B6" s="18">
@@ -3133,15 +3133,15 @@
       <c r="J6" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="L6" s="64" t="s">
+      <c r="L6" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="64"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
     </row>
     <row r="7" spans="2:18">
       <c r="B7" s="20">
@@ -3165,19 +3165,19 @@
       <c r="H7" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="I7" s="49" t="s">
+      <c r="I7" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="J7" s="56" t="s">
+      <c r="J7" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="L7" s="64"/>
-      <c r="M7" s="64"/>
-      <c r="N7" s="64"/>
-      <c r="O7" s="64"/>
-      <c r="P7" s="64"/>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="64"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
     </row>
     <row r="8" spans="2:18">
       <c r="B8" s="21">
@@ -3186,30 +3186,30 @@
       <c r="C8" s="16">
         <v>0.41666666666666702</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="F8" s="43" t="s">
+      <c r="F8" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="43" t="s">
+      <c r="G8" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="43" t="s">
+      <c r="H8" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="I8" s="51"/>
-      <c r="J8" s="57"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64"/>
-      <c r="N8" s="64"/>
-      <c r="O8" s="64"/>
-      <c r="P8" s="64"/>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="64"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="33"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
     </row>
     <row r="9" spans="2:18">
       <c r="B9" s="20">
@@ -3218,13 +3218,13 @@
       <c r="C9" s="10">
         <v>0.45833333333333298</v>
       </c>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="57"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="33"/>
     </row>
     <row r="10" spans="2:18">
       <c r="B10" s="21">
@@ -3233,13 +3233,13 @@
       <c r="C10" s="16">
         <v>0.5</v>
       </c>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="58"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="34"/>
     </row>
     <row r="11" spans="2:18">
       <c r="B11" s="20">
@@ -3248,11 +3248,11 @@
       <c r="C11" s="10">
         <v>0.54166666666666696</v>
       </c>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
       <c r="I11" s="17" t="s">
         <v>77</v>
       </c>
@@ -3267,15 +3267,15 @@
       <c r="C12" s="16">
         <v>0.58333333333333304</v>
       </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="34" t="s">
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="J12" s="31" t="s">
+      <c r="J12" s="53" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3286,13 +3286,13 @@
       <c r="C13" s="10">
         <v>0.625</v>
       </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="32"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="54"/>
     </row>
     <row r="14" spans="2:18">
       <c r="B14" s="21">
@@ -3301,13 +3301,13 @@
       <c r="C14" s="16">
         <v>0.66666666666666696</v>
       </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="32"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="54"/>
     </row>
     <row r="15" spans="2:18">
       <c r="B15" s="20">
@@ -3316,13 +3316,13 @@
       <c r="C15" s="10">
         <v>0.70833333333333304</v>
       </c>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="32"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="54"/>
     </row>
     <row r="16" spans="2:18">
       <c r="B16" s="21">
@@ -3331,13 +3331,13 @@
       <c r="C16" s="16">
         <v>0.75</v>
       </c>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="33"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="55"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="20">
@@ -3349,16 +3349,16 @@
       <c r="D17" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="49" t="s">
+      <c r="E17" s="35" t="s">
         <v>76</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="G17" s="49" t="s">
+      <c r="G17" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="H17" s="49" t="s">
+      <c r="H17" s="35" t="s">
         <v>76</v>
       </c>
       <c r="I17" s="17" t="s">
@@ -3375,19 +3375,19 @@
       <c r="C18" s="16">
         <v>0.83333333333333304</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="E18" s="52"/>
-      <c r="F18" s="43" t="s">
+      <c r="E18" s="36"/>
+      <c r="F18" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="34" t="s">
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="J18" s="31" t="s">
+      <c r="J18" s="53" t="s">
         <v>84</v>
       </c>
     </row>
@@ -3398,19 +3398,19 @@
       <c r="C19" s="10">
         <v>0.875</v>
       </c>
-      <c r="D19" s="44"/>
-      <c r="E19" s="43" t="s">
+      <c r="D19" s="30"/>
+      <c r="E19" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="F19" s="44"/>
-      <c r="G19" s="43" t="s">
+      <c r="F19" s="30"/>
+      <c r="G19" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="H19" s="43" t="s">
+      <c r="H19" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="I19" s="35"/>
-      <c r="J19" s="32"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="54"/>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="21">
@@ -3419,13 +3419,13 @@
       <c r="C20" s="16">
         <v>0.91666666666666696</v>
       </c>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="33"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="55"/>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" s="20">
@@ -3434,25 +3434,25 @@
       <c r="C21" s="10">
         <v>0.95833333333333304</v>
       </c>
-      <c r="D21" s="49" t="s">
+      <c r="D21" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="49" t="s">
+      <c r="E21" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="F21" s="49" t="s">
+      <c r="F21" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="G21" s="49" t="s">
+      <c r="G21" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="H21" s="49" t="s">
+      <c r="H21" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="I21" s="43" t="s">
+      <c r="I21" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="J21" s="46" t="s">
+      <c r="J21" s="43" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3463,13 +3463,13 @@
       <c r="C22" s="16">
         <v>1</v>
       </c>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="47"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="44"/>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="20">
@@ -3478,23 +3478,23 @@
       <c r="C23" s="10">
         <v>1.0416666666666701</v>
       </c>
-      <c r="D23" s="43" t="s">
+      <c r="D23" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="E23" s="43" t="s">
+      <c r="E23" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="F23" s="43" t="s">
+      <c r="F23" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="G23" s="43" t="s">
+      <c r="G23" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="H23" s="43" t="s">
+      <c r="H23" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="I23" s="45"/>
-      <c r="J23" s="48"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="45"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="21">
@@ -3503,11 +3503,11 @@
       <c r="C24" s="16">
         <v>1.0833333333333299</v>
       </c>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
       <c r="I24" s="37" t="s">
         <v>85</v>
       </c>
@@ -3520,19 +3520,19 @@
       <c r="C25" s="10">
         <v>1.125</v>
       </c>
-      <c r="D25" s="49" t="s">
+      <c r="D25" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="E25" s="49" t="s">
+      <c r="E25" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="F25" s="49" t="s">
+      <c r="F25" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="G25" s="49" t="s">
+      <c r="G25" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="H25" s="49" t="s">
+      <c r="H25" s="35" t="s">
         <v>81</v>
       </c>
       <c r="I25" s="39"/>
@@ -3545,36 +3545,22 @@
       <c r="C26" s="24">
         <v>1.1666666666666701</v>
       </c>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
       <c r="I26" s="41"/>
       <c r="J26" s="42"/>
     </row>
     <row r="27" spans="2:10" ht="17.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="L2:R2"/>
-    <mergeCell ref="L3:R5"/>
-    <mergeCell ref="L6:R8"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="D8:D16"/>
-    <mergeCell ref="E8:E16"/>
-    <mergeCell ref="F8:F16"/>
-    <mergeCell ref="G8:G16"/>
-    <mergeCell ref="H8:H16"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="I12:I16"/>
+    <mergeCell ref="D18:D20"/>
     <mergeCell ref="I24:J26"/>
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="J21:J23"/>
@@ -3591,14 +3577,28 @@
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="L3:R5"/>
+    <mergeCell ref="L6:R8"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="D8:D16"/>
+    <mergeCell ref="E8:E16"/>
+    <mergeCell ref="F8:F16"/>
+    <mergeCell ref="G8:G16"/>
+    <mergeCell ref="H8:H16"/>
+    <mergeCell ref="J7:J10"/>
     <mergeCell ref="B4:J4"/>
     <mergeCell ref="B3:J3"/>
     <mergeCell ref="J12:J16"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="I12:I16"/>
-    <mergeCell ref="D18:D20"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3613,8 +3613,8 @@
   </sheetPr>
   <dimension ref="B1:G15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -3629,23 +3629,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" s="1" customFormat="1" ht="42.75" customHeight="1">
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
     </row>
     <row r="2" spans="2:7" ht="15" customHeight="1"/>
     <row r="3" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
     </row>
     <row r="4" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="B4" s="7" t="s">
@@ -3675,16 +3675,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1">
@@ -3695,16 +3695,16 @@
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1">
@@ -3749,33 +3749,33 @@
     </row>
     <row r="9" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="B9" s="2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C9" s="3">
         <v>5</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="B10" s="2">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="C10" s="3">
         <v>5</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>44</v>
@@ -3789,22 +3789,22 @@
     </row>
     <row r="11" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="B11" s="2">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C11" s="3">
         <v>5</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1">
@@ -3933,23 +3933,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" s="1" customFormat="1" ht="42.75" customHeight="1">
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
     </row>
     <row r="2" spans="2:7" ht="15" customHeight="1"/>
     <row r="3" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
     </row>
     <row r="4" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="B4" s="7" t="s">
@@ -4179,23 +4179,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" s="1" customFormat="1" ht="42.75" customHeight="1">
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
     </row>
     <row r="2" spans="2:7" ht="15" customHeight="1"/>
     <row r="3" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
     </row>
     <row r="4" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="B4" s="7" t="s">
@@ -4419,23 +4419,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" s="1" customFormat="1" ht="42.75" customHeight="1">
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
     </row>
     <row r="2" spans="2:7" ht="15" customHeight="1"/>
     <row r="3" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
     </row>
     <row r="4" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="B4" s="7" t="s">

--- a/공부 계획.xlsx
+++ b/공부 계획.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1B05B8-BBB6-4382-A7C7-5CAAAAC05E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet9" sheetId="14" r:id="rId1"/>
@@ -53,7 +52,7 @@
     <definedName name="행제목영역1..D4">알고리즘!#REF!</definedName>
     <definedName name="현재시간">TIME(HOUR(NOW()),MINUTE(NOW()),SECOND(NOW()))</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <webPublishing codePage="1252"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -72,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="89">
   <si>
     <t>완료율</t>
   </si>
@@ -268,18 +267,6 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>ADsP 준비</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.29 시험</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022.10.29</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2022.11.05</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -288,10 +275,6 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>개념 암기 및 정리</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>11.05 시험</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
@@ -352,9 +335,6 @@
   </si>
   <si>
     <t>아침 루틴</t>
-  </si>
-  <si>
-    <t>샤워</t>
   </si>
   <si>
     <t>강의장 루틴</t>
@@ -403,11 +383,6 @@
   </si>
   <si>
     <t>주말 컨디션 관리</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>올빼미Algo
-스터디</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
@@ -460,22 +435,26 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>당면 과제: ADsP / SQLD / HTML + 장고</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">하고 싶은 것: 알고리즘 / CPP / 자바 / </t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>해야 하는 것: 네트워크-정리 / 데이터 베이스 / 컴퓨터 구조</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>당면 과제: SQLD</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="8">
     <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1546,6 +1525,72 @@
     <xf numFmtId="183" fontId="28" fillId="43" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="43" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="43" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="43" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="43" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="43" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="43" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1558,15 +1603,6 @@
     <xf numFmtId="0" fontId="29" fillId="41" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1576,42 +1612,6 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="40" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="40" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="40" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="40" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="40" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="40" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1628,27 +1628,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="40" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="40" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="40" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="40" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="40" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="40" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="40" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1678,7 +1657,7 @@
     <cellStyle name="60% - 강조색4" xfId="39" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - 강조색5" xfId="43" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - 강조색6" xfId="47" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Table_Details" xfId="49" xr:uid="{774BAA3F-1829-4B80-AF1D-AF9C19206A8B}"/>
+    <cellStyle name="Table_Details" xfId="49"/>
     <cellStyle name="강조색1" xfId="24" builtinId="29" customBuiltin="1"/>
     <cellStyle name="강조색2" xfId="28" builtinId="33" customBuiltin="1"/>
     <cellStyle name="강조색3" xfId="32" builtinId="37" customBuiltin="1"/>
@@ -1688,7 +1667,7 @@
     <cellStyle name="경고문" xfId="20" builtinId="11" customBuiltin="1"/>
     <cellStyle name="계산" xfId="17" builtinId="22" customBuiltin="1"/>
     <cellStyle name="나쁨" xfId="13" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="날짜" xfId="6" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="날짜" xfId="6"/>
     <cellStyle name="메모" xfId="21" builtinId="10" customBuiltin="1"/>
     <cellStyle name="백분율" xfId="5" builtinId="5" customBuiltin="1"/>
     <cellStyle name="보통" xfId="14" builtinId="28" customBuiltin="1"/>
@@ -1696,25 +1675,25 @@
     <cellStyle name="셀 확인" xfId="19" builtinId="23" customBuiltin="1"/>
     <cellStyle name="쉼표" xfId="7" builtinId="3" customBuiltin="1"/>
     <cellStyle name="쉼표 [0]" xfId="8" builtinId="6" customBuiltin="1"/>
-    <cellStyle name="시간" xfId="50" xr:uid="{C9D27893-E925-4C1E-A9A7-0D566BCBA54C}"/>
+    <cellStyle name="시간" xfId="50"/>
     <cellStyle name="연결된 셀" xfId="18" builtinId="24" customBuiltin="1"/>
     <cellStyle name="요약" xfId="23" builtinId="25" customBuiltin="1"/>
     <cellStyle name="입력" xfId="15" builtinId="20" customBuiltin="1"/>
     <cellStyle name="제목" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="제목 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="제목 1 2" xfId="53" xr:uid="{1F8128FE-73A1-4345-85C0-49DEB252C4C4}"/>
+    <cellStyle name="제목 1 2" xfId="53"/>
     <cellStyle name="제목 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="제목 2 2" xfId="54" xr:uid="{1B22F0A1-DBE3-4128-B565-091C96D7610F}"/>
+    <cellStyle name="제목 2 2" xfId="54"/>
     <cellStyle name="제목 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="제목 3 2" xfId="52" xr:uid="{17D54E91-607E-4A60-A7B3-C71A9E002C0B}"/>
+    <cellStyle name="제목 3 2" xfId="52"/>
     <cellStyle name="제목 4" xfId="11" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="제목 4 2" xfId="51" xr:uid="{0A4E88A6-B4DF-49D2-98D9-B3358A2C8166}"/>
+    <cellStyle name="제목 4 2" xfId="51"/>
     <cellStyle name="좋음" xfId="12" builtinId="26" customBuiltin="1"/>
     <cellStyle name="출력" xfId="16" builtinId="21" customBuiltin="1"/>
     <cellStyle name="통화" xfId="9" builtinId="4" customBuiltin="1"/>
     <cellStyle name="통화 [0]" xfId="10" builtinId="7" customBuiltin="1"/>
     <cellStyle name="표준" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="표준 2" xfId="48" xr:uid="{59839B9B-3937-43A4-9A47-9E5DFBC90313}"/>
+    <cellStyle name="표준 2" xfId="48"/>
   </cellStyles>
   <dxfs count="49">
     <dxf>
@@ -1726,8 +1705,6 @@
         <vertAlign val="baseline"/>
         <color theme="1"/>
         <name val="배달의민족 을지로체 TTF"/>
-        <family val="3"/>
-        <charset val="129"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1746,8 +1723,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="배달의민족 을지로체 TTF"/>
-        <family val="3"/>
-        <charset val="129"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="181" formatCode="yy&quot;年&quot;\ m&quot;月&quot;\ d&quot;日&quot;;@"/>
@@ -1768,8 +1743,6 @@
         <vertAlign val="baseline"/>
         <color theme="1"/>
         <name val="배달의민족 을지로체 TTF"/>
-        <family val="3"/>
-        <charset val="129"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -1784,8 +1757,6 @@
         <vertAlign val="baseline"/>
         <color theme="1"/>
         <name val="배달의민족 을지로체 TTF"/>
-        <family val="3"/>
-        <charset val="129"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1804,8 +1775,6 @@
         <sz val="16"/>
         <color theme="1"/>
         <name val="배달의민족 을지로체 TTF"/>
-        <family val="3"/>
-        <charset val="129"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="182" formatCode="0_);[Red]\(0\)"/>
@@ -1826,8 +1795,6 @@
         <vertAlign val="baseline"/>
         <color theme="1"/>
         <name val="배달의민족 을지로체 TTF"/>
-        <family val="3"/>
-        <charset val="129"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1841,8 +1808,6 @@
         <vertAlign val="baseline"/>
         <color rgb="FF000000"/>
         <name val="배달의민족 을지로체 TTF"/>
-        <family val="3"/>
-        <charset val="129"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1859,8 +1824,6 @@
         <vertAlign val="baseline"/>
         <color theme="1"/>
         <name val="배달의민족 을지로체 TTF"/>
-        <family val="3"/>
-        <charset val="129"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1879,8 +1842,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="배달의민족 을지로체 TTF"/>
-        <family val="3"/>
-        <charset val="129"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="181" formatCode="yy&quot;年&quot;\ m&quot;月&quot;\ d&quot;日&quot;;@"/>
@@ -1901,8 +1862,6 @@
         <vertAlign val="baseline"/>
         <color theme="1"/>
         <name val="배달의민족 을지로체 TTF"/>
-        <family val="3"/>
-        <charset val="129"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -1917,8 +1876,6 @@
         <vertAlign val="baseline"/>
         <color theme="1"/>
         <name val="배달의민족 을지로체 TTF"/>
-        <family val="3"/>
-        <charset val="129"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1937,8 +1894,6 @@
         <sz val="16"/>
         <color theme="1"/>
         <name val="배달의민족 을지로체 TTF"/>
-        <family val="3"/>
-        <charset val="129"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="182" formatCode="0_);[Red]\(0\)"/>
@@ -1959,8 +1914,6 @@
         <vertAlign val="baseline"/>
         <color theme="1"/>
         <name val="배달의민족 을지로체 TTF"/>
-        <family val="3"/>
-        <charset val="129"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1974,8 +1927,6 @@
         <vertAlign val="baseline"/>
         <color rgb="FF000000"/>
         <name val="배달의민족 을지로체 TTF"/>
-        <family val="3"/>
-        <charset val="129"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1992,8 +1943,6 @@
         <vertAlign val="baseline"/>
         <color theme="1"/>
         <name val="배달의민족 을지로체 TTF"/>
-        <family val="3"/>
-        <charset val="129"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2012,8 +1961,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="배달의민족 을지로체 TTF"/>
-        <family val="3"/>
-        <charset val="129"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="181" formatCode="yy&quot;年&quot;\ m&quot;月&quot;\ d&quot;日&quot;;@"/>
@@ -2034,8 +1981,6 @@
         <vertAlign val="baseline"/>
         <color theme="1"/>
         <name val="배달의민족 을지로체 TTF"/>
-        <family val="3"/>
-        <charset val="129"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -2050,8 +1995,6 @@
         <vertAlign val="baseline"/>
         <color theme="1"/>
         <name val="배달의민족 을지로체 TTF"/>
-        <family val="3"/>
-        <charset val="129"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2070,8 +2013,6 @@
         <sz val="16"/>
         <color theme="1"/>
         <name val="배달의민족 을지로체 TTF"/>
-        <family val="3"/>
-        <charset val="129"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="182" formatCode="0_);[Red]\(0\)"/>
@@ -2092,8 +2033,6 @@
         <vertAlign val="baseline"/>
         <color theme="1"/>
         <name val="배달의민족 을지로체 TTF"/>
-        <family val="3"/>
-        <charset val="129"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2107,8 +2046,6 @@
         <vertAlign val="baseline"/>
         <color theme="1"/>
         <name val="배달의민족 을지로체 TTF"/>
-        <family val="3"/>
-        <charset val="129"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2125,8 +2062,6 @@
         <vertAlign val="baseline"/>
         <color theme="1"/>
         <name val="배달의민족 을지로체 TTF"/>
-        <family val="3"/>
-        <charset val="129"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2145,8 +2080,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="배달의민족 을지로체 TTF"/>
-        <family val="3"/>
-        <charset val="129"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="181" formatCode="yy&quot;年&quot;\ m&quot;月&quot;\ d&quot;日&quot;;@"/>
@@ -2167,8 +2100,6 @@
         <vertAlign val="baseline"/>
         <color theme="1"/>
         <name val="배달의민족 을지로체 TTF"/>
-        <family val="3"/>
-        <charset val="129"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -2183,8 +2114,6 @@
         <vertAlign val="baseline"/>
         <color theme="1"/>
         <name val="배달의민족 을지로체 TTF"/>
-        <family val="3"/>
-        <charset val="129"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2203,8 +2132,6 @@
         <sz val="16"/>
         <color theme="1"/>
         <name val="배달의민족 을지로체 TTF"/>
-        <family val="3"/>
-        <charset val="129"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="182" formatCode="0_);[Red]\(0\)"/>
@@ -2225,8 +2152,6 @@
         <vertAlign val="baseline"/>
         <color theme="1"/>
         <name val="배달의민족 을지로체 TTF"/>
-        <family val="3"/>
-        <charset val="129"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2240,8 +2165,6 @@
         <vertAlign val="baseline"/>
         <color rgb="FF000000"/>
         <name val="배달의민족 을지로체 TTF"/>
-        <family val="3"/>
-        <charset val="129"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2512,21 +2435,21 @@
     </dxf>
   </dxfs>
   <tableStyles count="3" defaultTableStyle="프로젝트의 할 일 모음">
-    <tableStyle name="수업 시간표" pivot="0" count="5" xr9:uid="{233FA0DD-6733-4AE3-A01D-EF1E75B03312}">
+    <tableStyle name="수업 시간표" pivot="0" count="5">
       <tableStyleElement type="wholeTable" dxfId="48"/>
       <tableStyleElement type="headerRow" dxfId="47"/>
       <tableStyleElement type="totalRow" dxfId="46"/>
       <tableStyleElement type="lastColumn" dxfId="45"/>
       <tableStyleElement type="firstRowStripe" dxfId="44"/>
     </tableStyle>
-    <tableStyle name="수업 시간표 2" pivot="0" count="5" xr9:uid="{7BC60B1A-DAA0-40BE-96AE-656492672F24}">
+    <tableStyle name="수업 시간표 2" pivot="0" count="5">
       <tableStyleElement type="wholeTable" dxfId="43"/>
       <tableStyleElement type="headerRow" dxfId="42"/>
       <tableStyleElement type="totalRow" dxfId="41"/>
       <tableStyleElement type="lastColumn" dxfId="40"/>
       <tableStyleElement type="firstRowStripe" dxfId="39"/>
     </tableStyle>
-    <tableStyle name="프로젝트의 할 일 모음" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="프로젝트의 할 일 모음" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="38"/>
       <tableStyleElement type="headerRow" dxfId="37"/>
       <tableStyleElement type="totalRow" dxfId="36"/>
@@ -2557,18 +2480,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7CB381CB-7543-4F01-8068-54DAA3311BF5}" name="프로젝트15" displayName="프로젝트15" ref="B4:G15" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
-  <autoFilter ref="B4:G15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:G14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="프로젝트15" displayName="프로젝트15" ref="B4:G14" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+  <autoFilter ref="B4:G14"/>
+  <sortState ref="B5:G14">
     <sortCondition ref="C4:C15"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{16974788-FDD3-4759-AF66-39A68182E7A5}" name="완료율" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{14F8178A-44BE-47AE-BF26-8C10F8E7BE0F}" name="우선 순위" dataDxfId="28" dataCellStyle="백분율"/>
-    <tableColumn id="2" xr3:uid="{038CF94D-9F2A-46D4-ABCD-34EB6B81AF97}" name="목표" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{30B1BC36-2AB5-42BD-AE44-F5B01BB8E140}" name="수행 방법" dataDxfId="26"/>
-    <tableColumn id="6" xr3:uid="{B16FE1D8-A2E9-4E2D-81B2-B85A910CF783}" name="목표 기한" dataDxfId="25" dataCellStyle="날짜"/>
-    <tableColumn id="4" xr3:uid="{76E5C2D0-A134-4DED-9B33-92F1EDD57765}" name="추가 사항" dataDxfId="24"/>
+    <tableColumn id="1" name="완료율" dataDxfId="29"/>
+    <tableColumn id="5" name="우선 순위" dataDxfId="28" dataCellStyle="백분율"/>
+    <tableColumn id="2" name="목표" dataDxfId="27"/>
+    <tableColumn id="3" name="수행 방법" dataDxfId="26"/>
+    <tableColumn id="6" name="목표 기한" dataDxfId="25" dataCellStyle="날짜"/>
+    <tableColumn id="4" name="추가 사항" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="프로젝트의 할 일 모음" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2580,18 +2503,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="프로젝트1" displayName="프로젝트1" ref="B4:G13" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
-  <autoFilter ref="B4:G13" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:G13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="프로젝트1" displayName="프로젝트1" ref="B4:G13" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <autoFilter ref="B4:G13"/>
+  <sortState ref="B5:G13">
     <sortCondition ref="C4:C13"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="완료율" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{3C2C9303-650E-4CEB-BB08-8B08BFE5CAF4}" name="우선 순위" dataDxfId="20" dataCellStyle="백분율"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="목표" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="수행 방법" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{BCCFF7CA-64DD-4C9E-BEC3-8CDBAC4FC296}" name="목표 기한" dataDxfId="17" dataCellStyle="날짜"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="추가 사항" dataDxfId="16"/>
+    <tableColumn id="1" name="완료율" dataDxfId="21"/>
+    <tableColumn id="5" name="우선 순위" dataDxfId="20" dataCellStyle="백분율"/>
+    <tableColumn id="2" name="목표" dataDxfId="19"/>
+    <tableColumn id="3" name="수행 방법" dataDxfId="18"/>
+    <tableColumn id="6" name="목표 기한" dataDxfId="17" dataCellStyle="날짜"/>
+    <tableColumn id="4" name="추가 사항" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="프로젝트의 할 일 모음" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2603,18 +2526,18 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{212A2F1A-44AF-469E-B704-968F7947BBE6}" name="프로젝트157" displayName="프로젝트157" ref="B4:G13" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="B4:G13" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:G13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="프로젝트157" displayName="프로젝트157" ref="B4:G13" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="B4:G13"/>
+  <sortState ref="B5:G13">
     <sortCondition ref="C4:C13"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{8A12D497-B2E1-4922-AD00-9924BD87D159}" name="완료율" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{E5D6D197-59E3-4928-8FBD-249095A285F2}" name="우선 순위" dataDxfId="12" dataCellStyle="백분율"/>
-    <tableColumn id="2" xr3:uid="{519E77A1-8236-48A1-89E7-F9DCBF1559B3}" name="목표" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{BAB52B60-FAEC-4384-AB3C-CB207F6376F2}" name="수행 방법" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{D7CCE302-1170-49D6-9E3C-6E033ABCD855}" name="목표 기한" dataDxfId="9" dataCellStyle="날짜"/>
-    <tableColumn id="4" xr3:uid="{0540F153-7855-4818-80A9-3FC1C043AD10}" name="추가 사항" dataDxfId="8"/>
+    <tableColumn id="1" name="완료율" dataDxfId="13"/>
+    <tableColumn id="5" name="우선 순위" dataDxfId="12" dataCellStyle="백분율"/>
+    <tableColumn id="2" name="목표" dataDxfId="11"/>
+    <tableColumn id="3" name="수행 방법" dataDxfId="10"/>
+    <tableColumn id="6" name="목표 기한" dataDxfId="9" dataCellStyle="날짜"/>
+    <tableColumn id="4" name="추가 사항" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="프로젝트의 할 일 모음" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2626,18 +2549,18 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{286FCF13-81AF-46C3-8A7E-3C9067AC81E1}" name="프로젝트156" displayName="프로젝트156" ref="B4:G13" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="B4:G13" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:G13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="프로젝트156" displayName="프로젝트156" ref="B4:G13" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="B4:G13"/>
+  <sortState ref="B5:G13">
     <sortCondition ref="C4:C13"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{EE20D6FA-49FA-4F37-A713-58B258C3C5C2}" name="완료율" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{5E65EC2D-1070-4C73-9263-ECF717A3B22B}" name="우선 순위" dataDxfId="4" dataCellStyle="백분율"/>
-    <tableColumn id="2" xr3:uid="{3C266911-F9B4-45E7-A82D-7B3A9321D9DD}" name="목표" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{A5FF5059-0450-4474-BCD2-D7E063A0B9BD}" name="수행 방법" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{170E4163-7691-4B37-B4D7-8A48477F9882}" name="목표 기한" dataDxfId="1" dataCellStyle="날짜"/>
-    <tableColumn id="4" xr3:uid="{40A2E672-86D7-444C-8ACF-D0878E230947}" name="추가 사항" dataDxfId="0"/>
+    <tableColumn id="1" name="완료율" dataDxfId="5"/>
+    <tableColumn id="5" name="우선 순위" dataDxfId="4" dataCellStyle="백분율"/>
+    <tableColumn id="2" name="목표" dataDxfId="3"/>
+    <tableColumn id="3" name="수행 방법" dataDxfId="2"/>
+    <tableColumn id="6" name="목표 기한" dataDxfId="1" dataCellStyle="날짜"/>
+    <tableColumn id="4" name="추가 사항" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="프로젝트의 할 일 모음" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2991,119 +2914,120 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192CCE16-5A45-46A4-87B5-F284EC163D4E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:18" ht="49.5" customHeight="1" thickTop="1">
-      <c r="B2" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="28"/>
-      <c r="L2" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-    </row>
-    <row r="3" spans="2:18" ht="15" customHeight="1">
-      <c r="B3" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="52"/>
-      <c r="L3" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-    </row>
-    <row r="4" spans="2:18" ht="17.25" thickBot="1">
-      <c r="B4" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="49"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-    </row>
-    <row r="5" spans="2:18" ht="18" thickTop="1" thickBot="1">
+      <c r="B2" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="50"/>
+      <c r="L2" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+    </row>
+    <row r="3" spans="2:18" ht="30" customHeight="1">
+      <c r="B3" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="59"/>
+      <c r="L3" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+    </row>
+    <row r="4" spans="2:18" ht="35.25" customHeight="1" thickBot="1">
+      <c r="B4" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="56"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
+    </row>
+    <row r="5" spans="2:18" ht="28.5" thickTop="1" thickBot="1">
       <c r="B5" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G5" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="H5" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
     </row>
     <row r="6" spans="2:18" ht="17.25" thickTop="1">
       <c r="B6" s="18">
@@ -3113,35 +3037,35 @@
         <v>0.3611111111111111</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="L6" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
+        <v>68</v>
+      </c>
+      <c r="L6" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47"/>
     </row>
     <row r="7" spans="2:18">
       <c r="B7" s="20">
@@ -3151,33 +3075,33 @@
         <v>0.375</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="I7" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="J7" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
+        <v>69</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
     </row>
     <row r="8" spans="2:18">
       <c r="B8" s="21">
@@ -3186,30 +3110,30 @@
       <c r="C8" s="16">
         <v>0.41666666666666702</v>
       </c>
-      <c r="D8" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="G8" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H8" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="I8" s="59"/>
-      <c r="J8" s="33"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
+      <c r="D8" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="32"/>
+      <c r="J8" s="52"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47"/>
     </row>
     <row r="9" spans="2:18">
       <c r="B9" s="20">
@@ -3218,13 +3142,13 @@
       <c r="C9" s="10">
         <v>0.45833333333333298</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="33"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="52"/>
     </row>
     <row r="10" spans="2:18">
       <c r="B10" s="21">
@@ -3233,13 +3157,13 @@
       <c r="C10" s="16">
         <v>0.5</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="34"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="53"/>
     </row>
     <row r="11" spans="2:18">
       <c r="B11" s="20">
@@ -3248,16 +3172,16 @@
       <c r="C11" s="10">
         <v>0.54166666666666696</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
       <c r="I11" s="17" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="2:18">
@@ -3267,16 +3191,16 @@
       <c r="C12" s="16">
         <v>0.58333333333333304</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="56" t="s">
-        <v>80</v>
-      </c>
-      <c r="J12" s="53" t="s">
-        <v>80</v>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" s="28" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="2:18">
@@ -3286,13 +3210,13 @@
       <c r="C13" s="10">
         <v>0.625</v>
       </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="54"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="29"/>
     </row>
     <row r="14" spans="2:18">
       <c r="B14" s="21">
@@ -3301,13 +3225,13 @@
       <c r="C14" s="16">
         <v>0.66666666666666696</v>
       </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="54"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="29"/>
     </row>
     <row r="15" spans="2:18">
       <c r="B15" s="20">
@@ -3316,13 +3240,13 @@
       <c r="C15" s="10">
         <v>0.70833333333333304</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="54"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="29"/>
     </row>
     <row r="16" spans="2:18">
       <c r="B16" s="21">
@@ -3331,13 +3255,13 @@
       <c r="C16" s="16">
         <v>0.75</v>
       </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="55"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="30"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="20">
@@ -3347,25 +3271,25 @@
         <v>0.79166666666666696</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" s="35" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>71</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="G17" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="H17" s="35" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" s="31" t="s">
+        <v>71</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="J17" s="22" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="2:10">
@@ -3375,20 +3299,20 @@
       <c r="C18" s="16">
         <v>0.83333333333333304</v>
       </c>
-      <c r="D18" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="J18" s="53" t="s">
-        <v>84</v>
+      <c r="D18" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="33"/>
+      <c r="F18" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="J18" s="28" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="2:10">
@@ -3398,19 +3322,19 @@
       <c r="C19" s="10">
         <v>0.875</v>
       </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="F19" s="30"/>
-      <c r="G19" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="H19" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="I19" s="57"/>
-      <c r="J19" s="54"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="35"/>
+      <c r="G19" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="I19" s="26"/>
+      <c r="J19" s="29"/>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="21">
@@ -3419,13 +3343,13 @@
       <c r="C20" s="16">
         <v>0.91666666666666696</v>
       </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="55"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="30"/>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" s="20">
@@ -3434,26 +3358,26 @@
       <c r="C21" s="10">
         <v>0.95833333333333304</v>
       </c>
-      <c r="D21" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="E21" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="G21" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="H21" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="I21" s="29" t="s">
-        <v>80</v>
+      <c r="D21" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="I21" s="34" t="s">
+        <v>75</v>
       </c>
       <c r="J21" s="43" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="2:10">
@@ -3463,12 +3387,12 @@
       <c r="C22" s="16">
         <v>1</v>
       </c>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="30"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="35"/>
       <c r="J22" s="44"/>
     </row>
     <row r="23" spans="2:10">
@@ -3478,22 +3402,22 @@
       <c r="C23" s="10">
         <v>1.0416666666666701</v>
       </c>
-      <c r="D23" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="F23" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="G23" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="H23" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="I23" s="31"/>
+      <c r="D23" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="H23" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="I23" s="36"/>
       <c r="J23" s="45"/>
     </row>
     <row r="24" spans="2:10">
@@ -3503,13 +3427,13 @@
       <c r="C24" s="16">
         <v>1.0833333333333299</v>
       </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
       <c r="I24" s="37" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J24" s="38"/>
     </row>
@@ -3520,20 +3444,20 @@
       <c r="C25" s="10">
         <v>1.125</v>
       </c>
-      <c r="D25" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="E25" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="F25" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="G25" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="H25" s="35" t="s">
-        <v>81</v>
+      <c r="D25" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="G25" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="H25" s="31" t="s">
+        <v>76</v>
       </c>
       <c r="I25" s="39"/>
       <c r="J25" s="40"/>
@@ -3556,11 +3480,28 @@
     <row r="27" spans="2:10" ht="17.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="I12:I16"/>
-    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="L3:R5"/>
+    <mergeCell ref="L6:R8"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="D8:D16"/>
+    <mergeCell ref="E8:E16"/>
+    <mergeCell ref="F8:F16"/>
+    <mergeCell ref="G8:G16"/>
+    <mergeCell ref="H8:H16"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="J12:J16"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
     <mergeCell ref="I24:J26"/>
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="J21:J23"/>
@@ -3577,28 +3518,11 @@
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="L2:R2"/>
-    <mergeCell ref="L3:R5"/>
-    <mergeCell ref="L6:R8"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="D8:D16"/>
-    <mergeCell ref="E8:E16"/>
-    <mergeCell ref="F8:F16"/>
-    <mergeCell ref="G8:G16"/>
-    <mergeCell ref="H8:H16"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="J12:J16"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="I12:I16"/>
+    <mergeCell ref="D18:D20"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3606,15 +3530,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14279DD5-4C7E-4719-A7CF-B3CD2A00CF52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:G15"/>
+  <dimension ref="B1:G14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -3675,47 +3599,47 @@
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="B6" s="2">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="C6" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="B7" s="2">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="C7" s="3">
         <v>3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>40</v>
@@ -3724,58 +3648,58 @@
         <v>21</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="B8" s="2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="B9" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C9" s="3">
         <v>5</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="B10" s="2">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="C10" s="3">
         <v>5</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>44</v>
@@ -3789,22 +3713,22 @@
     </row>
     <row r="11" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="B11" s="2">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C11" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1">
@@ -3812,56 +3736,36 @@
         <v>0</v>
       </c>
       <c r="C12" s="3">
-        <v>8</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>59</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="B13" s="2">
         <v>0</v>
       </c>
       <c r="C13" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="8"/>
       <c r="F13" s="5"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1">
+    <row r="14" spans="2:7" s="1" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="B14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="8"/>
       <c r="F14" s="5"/>
       <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="2:7" s="1" customFormat="1" ht="30" hidden="1" customHeight="1">
-      <c r="B15" s="2">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3">
-        <v>9</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3869,8 +3773,8 @@
     <mergeCell ref="B3:G3"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
-  <conditionalFormatting sqref="B5:B15">
-    <cfRule type="dataBar" priority="2">
+  <conditionalFormatting sqref="B5:B14">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3878,8 +3782,8 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:C15">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="C5:C14">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3889,13 +3793,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열의 이 머리글 아래에 메모를 입력합니다." sqref="G4" xr:uid="{571ACFE0-6CEE-42B7-AC14-AF0F337F0280}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열의 이 머리글 아래에 기한 날짜를 입력합니다." sqref="E4:F4" xr:uid="{676D4246-E3FA-489C-9E47-F6FC129EDB76}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열의 이 머리글 아래에 프로젝트 단계를 입력합니다." sqref="D4" xr:uid="{A8CD1530-717F-49F0-B866-8C2C5D688F98}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열의 이 머리글 아래에 완료율을 입력합니다. 완료율을 보여 주는 데이터 막대가 각 행에 자동으로 업데이트됩니다. 특정 항목을 찾으려면 머리글 필터를 사용하세요." sqref="B4:C4" xr:uid="{12B9642C-3A3C-4144-BD0C-3872CAF0D8D7}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="아래 표에 프로젝트 1에 대한 세부 정보를 입력합니다." sqref="B3:G3" xr:uid="{6F70444A-13F2-47A9-B931-6E3674A3445C}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에는 워크시트의 제목이 표시됩니다. D3 셀에 이 프로젝트를 완료할 사람 이름을 입력하고 D4 셀에 최종 기한 날짜를 입력합니다. B7 셀에서 시작하는 표에 프로젝트 세부 정보를 입력합니다." sqref="B1:C1" xr:uid="{C8F33A36-08AB-4339-A7A3-B4A1FA0DBC38}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 통합 문서에 프로젝트에 대한 할 일 모음을 작성합니다. 이 워크시트에 프로젝트 1에 대한 프로젝트 세부 정보를 입력하고 다음 워크시트에 프로젝트 2 및 프로젝트 3에 대한 세부 정보를 입력합니다." sqref="A1" xr:uid="{4876E746-61E1-4984-8446-BFC944AFC04D}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열의 이 머리글 아래에 메모를 입력합니다." sqref="G4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열의 이 머리글 아래에 기한 날짜를 입력합니다." sqref="E4:F4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열의 이 머리글 아래에 프로젝트 단계를 입력합니다." sqref="D4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열의 이 머리글 아래에 완료율을 입력합니다. 완료율을 보여 주는 데이터 막대가 각 행에 자동으로 업데이트됩니다. 특정 항목을 찾으려면 머리글 필터를 사용하세요." sqref="B4:C4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="아래 표에 프로젝트 1에 대한 세부 정보를 입력합니다." sqref="B3:G3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에는 워크시트의 제목이 표시됩니다. D3 셀에 이 프로젝트를 완료할 사람 이름을 입력하고 D4 셀에 최종 기한 날짜를 입력합니다. B7 셀에서 시작하는 표에 프로젝트 세부 정보를 입력합니다." sqref="B1:C1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 통합 문서에 프로젝트에 대한 할 일 모음을 작성합니다. 이 워크시트에 프로젝트 1에 대한 프로젝트 세부 정보를 입력하고 다음 워크시트에 프로젝트 2 및 프로젝트 3에 대한 세부 정보를 입력합니다." sqref="A1"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
@@ -3910,7 +3814,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFED394"/>
     <pageSetUpPr fitToPage="1"/>
@@ -4135,13 +4039,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 통합 문서에 프로젝트에 대한 할 일 모음을 작성합니다. 이 워크시트에 프로젝트 1에 대한 프로젝트 세부 정보를 입력하고 다음 워크시트에 프로젝트 2 및 프로젝트 3에 대한 세부 정보를 입력합니다." sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에는 워크시트의 제목이 표시됩니다. D3 셀에 이 프로젝트를 완료할 사람 이름을 입력하고 D4 셀에 최종 기한 날짜를 입력합니다. B7 셀에서 시작하는 표에 프로젝트 세부 정보를 입력합니다." sqref="B1:C1" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="아래 표에 프로젝트 1에 대한 세부 정보를 입력합니다." sqref="B3:G3" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열의 이 머리글 아래에 완료율을 입력합니다. 완료율을 보여 주는 데이터 막대가 각 행에 자동으로 업데이트됩니다. 특정 항목을 찾으려면 머리글 필터를 사용하세요." sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열의 이 머리글 아래에 프로젝트 단계를 입력합니다." sqref="D4" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열의 이 머리글 아래에 기한 날짜를 입력합니다." sqref="E4:F4" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열의 이 머리글 아래에 메모를 입력합니다." sqref="G4" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 통합 문서에 프로젝트에 대한 할 일 모음을 작성합니다. 이 워크시트에 프로젝트 1에 대한 프로젝트 세부 정보를 입력하고 다음 워크시트에 프로젝트 2 및 프로젝트 3에 대한 세부 정보를 입력합니다." sqref="A1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에는 워크시트의 제목이 표시됩니다. D3 셀에 이 프로젝트를 완료할 사람 이름을 입력하고 D4 셀에 최종 기한 날짜를 입력합니다. B7 셀에서 시작하는 표에 프로젝트 세부 정보를 입력합니다." sqref="B1:C1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="아래 표에 프로젝트 1에 대한 세부 정보를 입력합니다." sqref="B3:G3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열의 이 머리글 아래에 완료율을 입력합니다. 완료율을 보여 주는 데이터 막대가 각 행에 자동으로 업데이트됩니다. 특정 항목을 찾으려면 머리글 필터를 사용하세요." sqref="B4:C4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열의 이 머리글 아래에 프로젝트 단계를 입력합니다." sqref="D4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열의 이 머리글 아래에 기한 날짜를 입력합니다." sqref="E4:F4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열의 이 머리글 아래에 메모를 입력합니다." sqref="G4"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
@@ -4156,7 +4060,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDF98A4A-C16D-4598-B38C-B8D9F53B49D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF6699FF"/>
     <pageSetUpPr fitToPage="1"/>
@@ -4375,13 +4279,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 통합 문서에 프로젝트에 대한 할 일 모음을 작성합니다. 이 워크시트에 프로젝트 1에 대한 프로젝트 세부 정보를 입력하고 다음 워크시트에 프로젝트 2 및 프로젝트 3에 대한 세부 정보를 입력합니다." sqref="A1" xr:uid="{30E0D826-BF6E-4C03-AAFC-B5DA0CFAF5CE}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에는 워크시트의 제목이 표시됩니다. D3 셀에 이 프로젝트를 완료할 사람 이름을 입력하고 D4 셀에 최종 기한 날짜를 입력합니다. B7 셀에서 시작하는 표에 프로젝트 세부 정보를 입력합니다." sqref="B1:C1" xr:uid="{8FCCCACF-BA5A-42FA-8C44-0A17B88E1661}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="아래 표에 프로젝트 1에 대한 세부 정보를 입력합니다." sqref="B3:G3" xr:uid="{2C04B89C-3579-40A5-B8F7-F8AD1701A8A2}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열의 이 머리글 아래에 완료율을 입력합니다. 완료율을 보여 주는 데이터 막대가 각 행에 자동으로 업데이트됩니다. 특정 항목을 찾으려면 머리글 필터를 사용하세요." sqref="B4:C4" xr:uid="{D6A20AAA-3D93-4428-86E0-F98E90B80F92}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열의 이 머리글 아래에 프로젝트 단계를 입력합니다." sqref="D4" xr:uid="{197C3589-999C-4760-AED3-67E758D8C036}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열의 이 머리글 아래에 기한 날짜를 입력합니다." sqref="E4:F4" xr:uid="{5114C8EC-690A-4C61-819E-9CDB2BA2F0C3}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열의 이 머리글 아래에 메모를 입력합니다." sqref="G4" xr:uid="{7974E9D4-1946-40D9-BD65-3DEF762F91DB}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 통합 문서에 프로젝트에 대한 할 일 모음을 작성합니다. 이 워크시트에 프로젝트 1에 대한 프로젝트 세부 정보를 입력하고 다음 워크시트에 프로젝트 2 및 프로젝트 3에 대한 세부 정보를 입력합니다." sqref="A1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에는 워크시트의 제목이 표시됩니다. D3 셀에 이 프로젝트를 완료할 사람 이름을 입력하고 D4 셀에 최종 기한 날짜를 입력합니다. B7 셀에서 시작하는 표에 프로젝트 세부 정보를 입력합니다." sqref="B1:C1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="아래 표에 프로젝트 1에 대한 세부 정보를 입력합니다." sqref="B3:G3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열의 이 머리글 아래에 완료율을 입력합니다. 완료율을 보여 주는 데이터 막대가 각 행에 자동으로 업데이트됩니다. 특정 항목을 찾으려면 머리글 필터를 사용하세요." sqref="B4:C4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열의 이 머리글 아래에 프로젝트 단계를 입력합니다." sqref="D4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열의 이 머리글 아래에 기한 날짜를 입력합니다." sqref="E4:F4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열의 이 머리글 아래에 메모를 입력합니다." sqref="G4"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
@@ -4396,7 +4300,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B7A83F-ED5F-4B49-8A89-FE75B946F65A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFBCFFB9"/>
     <pageSetUpPr fitToPage="1"/>
@@ -4615,13 +4519,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 통합 문서에 프로젝트에 대한 할 일 모음을 작성합니다. 이 워크시트에 프로젝트 1에 대한 프로젝트 세부 정보를 입력하고 다음 워크시트에 프로젝트 2 및 프로젝트 3에 대한 세부 정보를 입력합니다." sqref="A1" xr:uid="{DCE1DBAD-1A8D-43DA-BA57-FBB7E7C17371}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에는 워크시트의 제목이 표시됩니다. D3 셀에 이 프로젝트를 완료할 사람 이름을 입력하고 D4 셀에 최종 기한 날짜를 입력합니다. B7 셀에서 시작하는 표에 프로젝트 세부 정보를 입력합니다." sqref="B1:C1" xr:uid="{EF25F0CA-DC80-48D5-A98B-0E8BC9E124D7}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="아래 표에 프로젝트 1에 대한 세부 정보를 입력합니다." sqref="B3:G3" xr:uid="{A04C6C3A-0DFC-4552-8F7F-1F234E602539}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열의 이 머리글 아래에 완료율을 입력합니다. 완료율을 보여 주는 데이터 막대가 각 행에 자동으로 업데이트됩니다. 특정 항목을 찾으려면 머리글 필터를 사용하세요." sqref="B4:C4" xr:uid="{7D303097-8114-4034-9938-0E29D4C0C361}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열의 이 머리글 아래에 프로젝트 단계를 입력합니다." sqref="D4" xr:uid="{B4B41B32-1683-47FF-AA7D-CE080D571225}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열의 이 머리글 아래에 기한 날짜를 입력합니다." sqref="E4:F4" xr:uid="{D4B45FF4-DD43-4757-85D5-2690916B6EE7}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열의 이 머리글 아래에 메모를 입력합니다." sqref="G4" xr:uid="{E997DE7C-48F6-4F76-93CB-F4DB0207C700}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 통합 문서에 프로젝트에 대한 할 일 모음을 작성합니다. 이 워크시트에 프로젝트 1에 대한 프로젝트 세부 정보를 입력하고 다음 워크시트에 프로젝트 2 및 프로젝트 3에 대한 세부 정보를 입력합니다." sqref="A1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에는 워크시트의 제목이 표시됩니다. D3 셀에 이 프로젝트를 완료할 사람 이름을 입력하고 D4 셀에 최종 기한 날짜를 입력합니다. B7 셀에서 시작하는 표에 프로젝트 세부 정보를 입력합니다." sqref="B1:C1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="아래 표에 프로젝트 1에 대한 세부 정보를 입력합니다." sqref="B3:G3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열의 이 머리글 아래에 완료율을 입력합니다. 완료율을 보여 주는 데이터 막대가 각 행에 자동으로 업데이트됩니다. 특정 항목을 찾으려면 머리글 필터를 사용하세요." sqref="B4:C4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열의 이 머리글 아래에 프로젝트 단계를 입력합니다." sqref="D4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열의 이 머리글 아래에 기한 날짜를 입력합니다." sqref="E4:F4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열의 이 머리글 아래에 메모를 입력합니다." sqref="G4"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>

--- a/공부 계획.xlsx
+++ b/공부 계획.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2452F976-59BD-4A2A-8EBF-3693DB5258A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255"/>
+    <workbookView xWindow="19185" yWindow="2295" windowWidth="14325" windowHeight="14820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet9" sheetId="14" r:id="rId1"/>
@@ -54,19 +55,6 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <webPublishing codePage="1252"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -454,7 +442,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="8">
     <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1525,6 +1513,99 @@
     <xf numFmtId="183" fontId="28" fillId="43" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="41" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="41" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="41" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="43" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="43" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="43" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="40" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="40" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="43" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="43" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="43" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="40" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1534,100 +1615,7 @@
     <xf numFmtId="0" fontId="28" fillId="40" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="40" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="40" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="40" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="40" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="40" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="40" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="40" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="40" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="40" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="41" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="41" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="41" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="40" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="40" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1657,7 +1645,7 @@
     <cellStyle name="60% - 강조색4" xfId="39" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - 강조색5" xfId="43" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - 강조색6" xfId="47" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Table_Details" xfId="49"/>
+    <cellStyle name="Table_Details" xfId="49" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
     <cellStyle name="강조색1" xfId="24" builtinId="29" customBuiltin="1"/>
     <cellStyle name="강조색2" xfId="28" builtinId="33" customBuiltin="1"/>
     <cellStyle name="강조색3" xfId="32" builtinId="37" customBuiltin="1"/>
@@ -1667,7 +1655,7 @@
     <cellStyle name="경고문" xfId="20" builtinId="11" customBuiltin="1"/>
     <cellStyle name="계산" xfId="17" builtinId="22" customBuiltin="1"/>
     <cellStyle name="나쁨" xfId="13" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="날짜" xfId="6"/>
+    <cellStyle name="날짜" xfId="6" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
     <cellStyle name="메모" xfId="21" builtinId="10" customBuiltin="1"/>
     <cellStyle name="백분율" xfId="5" builtinId="5" customBuiltin="1"/>
     <cellStyle name="보통" xfId="14" builtinId="28" customBuiltin="1"/>
@@ -1675,25 +1663,25 @@
     <cellStyle name="셀 확인" xfId="19" builtinId="23" customBuiltin="1"/>
     <cellStyle name="쉼표" xfId="7" builtinId="3" customBuiltin="1"/>
     <cellStyle name="쉼표 [0]" xfId="8" builtinId="6" customBuiltin="1"/>
-    <cellStyle name="시간" xfId="50"/>
+    <cellStyle name="시간" xfId="50" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
     <cellStyle name="연결된 셀" xfId="18" builtinId="24" customBuiltin="1"/>
     <cellStyle name="요약" xfId="23" builtinId="25" customBuiltin="1"/>
     <cellStyle name="입력" xfId="15" builtinId="20" customBuiltin="1"/>
     <cellStyle name="제목" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="제목 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="제목 1 2" xfId="53"/>
+    <cellStyle name="제목 1 2" xfId="53" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
     <cellStyle name="제목 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="제목 2 2" xfId="54"/>
+    <cellStyle name="제목 2 2" xfId="54" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
     <cellStyle name="제목 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="제목 3 2" xfId="52"/>
+    <cellStyle name="제목 3 2" xfId="52" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
     <cellStyle name="제목 4" xfId="11" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="제목 4 2" xfId="51"/>
+    <cellStyle name="제목 4 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
     <cellStyle name="좋음" xfId="12" builtinId="26" customBuiltin="1"/>
     <cellStyle name="출력" xfId="16" builtinId="21" customBuiltin="1"/>
     <cellStyle name="통화" xfId="9" builtinId="4" customBuiltin="1"/>
     <cellStyle name="통화 [0]" xfId="10" builtinId="7" customBuiltin="1"/>
     <cellStyle name="표준" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="표준 2" xfId="48"/>
+    <cellStyle name="표준 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
   </cellStyles>
   <dxfs count="49">
     <dxf>
@@ -2435,21 +2423,21 @@
     </dxf>
   </dxfs>
   <tableStyles count="3" defaultTableStyle="프로젝트의 할 일 모음">
-    <tableStyle name="수업 시간표" pivot="0" count="5">
+    <tableStyle name="수업 시간표" pivot="0" count="5" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="48"/>
       <tableStyleElement type="headerRow" dxfId="47"/>
       <tableStyleElement type="totalRow" dxfId="46"/>
       <tableStyleElement type="lastColumn" dxfId="45"/>
       <tableStyleElement type="firstRowStripe" dxfId="44"/>
     </tableStyle>
-    <tableStyle name="수업 시간표 2" pivot="0" count="5">
+    <tableStyle name="수업 시간표 2" pivot="0" count="5" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="43"/>
       <tableStyleElement type="headerRow" dxfId="42"/>
       <tableStyleElement type="totalRow" dxfId="41"/>
       <tableStyleElement type="lastColumn" dxfId="40"/>
       <tableStyleElement type="firstRowStripe" dxfId="39"/>
     </tableStyle>
-    <tableStyle name="프로젝트의 할 일 모음" pivot="0" count="7">
+    <tableStyle name="프로젝트의 할 일 모음" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
       <tableStyleElement type="wholeTable" dxfId="38"/>
       <tableStyleElement type="headerRow" dxfId="37"/>
       <tableStyleElement type="totalRow" dxfId="36"/>
@@ -2480,18 +2468,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="프로젝트15" displayName="프로젝트15" ref="B4:G14" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
-  <autoFilter ref="B4:G14"/>
-  <sortState ref="B5:G14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="프로젝트15" displayName="프로젝트15" ref="B4:G14" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+  <autoFilter ref="B4:G14" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:G14">
     <sortCondition ref="C4:C15"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="완료율" dataDxfId="29"/>
-    <tableColumn id="5" name="우선 순위" dataDxfId="28" dataCellStyle="백분율"/>
-    <tableColumn id="2" name="목표" dataDxfId="27"/>
-    <tableColumn id="3" name="수행 방법" dataDxfId="26"/>
-    <tableColumn id="6" name="목표 기한" dataDxfId="25" dataCellStyle="날짜"/>
-    <tableColumn id="4" name="추가 사항" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="완료율" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="우선 순위" dataDxfId="28" dataCellStyle="백분율"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="목표" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="수행 방법" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="목표 기한" dataDxfId="25" dataCellStyle="날짜"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="추가 사항" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="프로젝트의 할 일 모음" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2503,18 +2491,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="프로젝트1" displayName="프로젝트1" ref="B4:G13" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
-  <autoFilter ref="B4:G13"/>
-  <sortState ref="B5:G13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="프로젝트1" displayName="프로젝트1" ref="B4:G13" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <autoFilter ref="B4:G13" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:G13">
     <sortCondition ref="C4:C13"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="완료율" dataDxfId="21"/>
-    <tableColumn id="5" name="우선 순위" dataDxfId="20" dataCellStyle="백분율"/>
-    <tableColumn id="2" name="목표" dataDxfId="19"/>
-    <tableColumn id="3" name="수행 방법" dataDxfId="18"/>
-    <tableColumn id="6" name="목표 기한" dataDxfId="17" dataCellStyle="날짜"/>
-    <tableColumn id="4" name="추가 사항" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="완료율" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="우선 순위" dataDxfId="20" dataCellStyle="백분율"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="목표" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="수행 방법" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="목표 기한" dataDxfId="17" dataCellStyle="날짜"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="추가 사항" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="프로젝트의 할 일 모음" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2526,18 +2514,18 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="프로젝트157" displayName="프로젝트157" ref="B4:G13" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="B4:G13"/>
-  <sortState ref="B5:G13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="프로젝트157" displayName="프로젝트157" ref="B4:G13" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="B4:G13" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:G13">
     <sortCondition ref="C4:C13"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="완료율" dataDxfId="13"/>
-    <tableColumn id="5" name="우선 순위" dataDxfId="12" dataCellStyle="백분율"/>
-    <tableColumn id="2" name="목표" dataDxfId="11"/>
-    <tableColumn id="3" name="수행 방법" dataDxfId="10"/>
-    <tableColumn id="6" name="목표 기한" dataDxfId="9" dataCellStyle="날짜"/>
-    <tableColumn id="4" name="추가 사항" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="완료율" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="우선 순위" dataDxfId="12" dataCellStyle="백분율"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="목표" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="수행 방법" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="목표 기한" dataDxfId="9" dataCellStyle="날짜"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="추가 사항" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="프로젝트의 할 일 모음" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2549,18 +2537,18 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="프로젝트156" displayName="프로젝트156" ref="B4:G13" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="B4:G13"/>
-  <sortState ref="B5:G13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="프로젝트156" displayName="프로젝트156" ref="B4:G13" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="B4:G13" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:G13">
     <sortCondition ref="C4:C13"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="완료율" dataDxfId="5"/>
-    <tableColumn id="5" name="우선 순위" dataDxfId="4" dataCellStyle="백분율"/>
-    <tableColumn id="2" name="목표" dataDxfId="3"/>
-    <tableColumn id="3" name="수행 방법" dataDxfId="2"/>
-    <tableColumn id="6" name="목표 기한" dataDxfId="1" dataCellStyle="날짜"/>
-    <tableColumn id="4" name="추가 사항" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="완료율" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="우선 순위" dataDxfId="4" dataCellStyle="백분율"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="목표" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="수행 방법" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="목표 기한" dataDxfId="1" dataCellStyle="날짜"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="추가 사항" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="프로젝트의 할 일 모음" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2914,11 +2902,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:D20"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2930,70 +2918,70 @@
   <sheetData>
     <row r="1" spans="2:18" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:18" ht="49.5" customHeight="1" thickTop="1">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="50"/>
-      <c r="L2" s="47" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="28"/>
+      <c r="L2" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
     </row>
     <row r="3" spans="2:18" ht="30" customHeight="1">
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="59"/>
-      <c r="L3" s="47" t="s">
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="40"/>
+      <c r="L3" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
     </row>
     <row r="4" spans="2:18" ht="35.25" customHeight="1" thickBot="1">
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="56"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-    </row>
-    <row r="5" spans="2:18" ht="28.5" thickTop="1" thickBot="1">
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="37"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+    </row>
+    <row r="5" spans="2:18" ht="18" thickTop="1" thickBot="1">
       <c r="B5" s="11" t="s">
         <v>67</v>
       </c>
@@ -3021,13 +3009,13 @@
       <c r="J5" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
     </row>
     <row r="6" spans="2:18" ht="17.25" thickTop="1">
       <c r="B6" s="18">
@@ -3057,15 +3045,15 @@
       <c r="J6" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="L6" s="47" t="s">
+      <c r="L6" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
     </row>
     <row r="7" spans="2:18">
       <c r="B7" s="20">
@@ -3089,19 +3077,19 @@
       <c r="H7" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="I7" s="31" t="s">
+      <c r="I7" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="J7" s="51" t="s">
+      <c r="J7" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="47"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
     </row>
     <row r="8" spans="2:18">
       <c r="B8" s="21">
@@ -3110,30 +3098,30 @@
       <c r="C8" s="16">
         <v>0.41666666666666702</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="H8" s="34" t="s">
+      <c r="H8" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="I8" s="32"/>
-      <c r="J8" s="52"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="33"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
     </row>
     <row r="9" spans="2:18">
       <c r="B9" s="20">
@@ -3142,13 +3130,13 @@
       <c r="C9" s="10">
         <v>0.45833333333333298</v>
       </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="52"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="33"/>
     </row>
     <row r="10" spans="2:18">
       <c r="B10" s="21">
@@ -3157,13 +3145,13 @@
       <c r="C10" s="16">
         <v>0.5</v>
       </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="53"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="34"/>
     </row>
     <row r="11" spans="2:18">
       <c r="B11" s="20">
@@ -3172,11 +3160,11 @@
       <c r="C11" s="10">
         <v>0.54166666666666696</v>
       </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
       <c r="I11" s="17" t="s">
         <v>72</v>
       </c>
@@ -3191,15 +3179,15 @@
       <c r="C12" s="16">
         <v>0.58333333333333304</v>
       </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="25" t="s">
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="J12" s="28" t="s">
+      <c r="J12" s="41" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3210,13 +3198,13 @@
       <c r="C13" s="10">
         <v>0.625</v>
       </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="29"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="42"/>
     </row>
     <row r="14" spans="2:18">
       <c r="B14" s="21">
@@ -3225,13 +3213,13 @@
       <c r="C14" s="16">
         <v>0.66666666666666696</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="29"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="42"/>
     </row>
     <row r="15" spans="2:18">
       <c r="B15" s="20">
@@ -3240,13 +3228,13 @@
       <c r="C15" s="10">
         <v>0.70833333333333304</v>
       </c>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="29"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="42"/>
     </row>
     <row r="16" spans="2:18">
       <c r="B16" s="21">
@@ -3255,13 +3243,13 @@
       <c r="C16" s="16">
         <v>0.75</v>
       </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="30"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="43"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="20">
@@ -3273,16 +3261,16 @@
       <c r="D17" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="44" t="s">
         <v>71</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G17" s="31" t="s">
+      <c r="G17" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="H17" s="31" t="s">
+      <c r="H17" s="44" t="s">
         <v>71</v>
       </c>
       <c r="I17" s="17" t="s">
@@ -3299,19 +3287,19 @@
       <c r="C18" s="16">
         <v>0.83333333333333304</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="E18" s="33"/>
-      <c r="F18" s="34" t="s">
+      <c r="E18" s="45"/>
+      <c r="F18" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="25" t="s">
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="J18" s="28" t="s">
+      <c r="J18" s="41" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3322,19 +3310,19 @@
       <c r="C19" s="10">
         <v>0.875</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="34" t="s">
+      <c r="D19" s="30"/>
+      <c r="E19" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="F19" s="35"/>
-      <c r="G19" s="34" t="s">
+      <c r="F19" s="30"/>
+      <c r="G19" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="H19" s="34" t="s">
+      <c r="H19" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="I19" s="26"/>
-      <c r="J19" s="29"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="42"/>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="21">
@@ -3343,13 +3331,13 @@
       <c r="C20" s="16">
         <v>0.91666666666666696</v>
       </c>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="30"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="43"/>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" s="20">
@@ -3358,25 +3346,25 @@
       <c r="C21" s="10">
         <v>0.95833333333333304</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="E21" s="31" t="s">
+      <c r="E21" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="F21" s="31" t="s">
+      <c r="F21" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="G21" s="31" t="s">
+      <c r="G21" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="H21" s="31" t="s">
+      <c r="H21" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="I21" s="34" t="s">
+      <c r="I21" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="J21" s="43" t="s">
+      <c r="J21" s="52" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3387,13 +3375,13 @@
       <c r="C22" s="16">
         <v>1</v>
       </c>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="44"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="53"/>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="20">
@@ -3402,23 +3390,23 @@
       <c r="C23" s="10">
         <v>1.0416666666666701</v>
       </c>
-      <c r="D23" s="34" t="s">
+      <c r="D23" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="E23" s="34" t="s">
+      <c r="E23" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="F23" s="34" t="s">
+      <c r="F23" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="G23" s="34" t="s">
+      <c r="G23" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="H23" s="34" t="s">
+      <c r="H23" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="I23" s="36"/>
-      <c r="J23" s="45"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="54"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="21">
@@ -3427,15 +3415,15 @@
       <c r="C24" s="16">
         <v>1.0833333333333299</v>
       </c>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="37" t="s">
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="J24" s="38"/>
+      <c r="J24" s="47"/>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" s="20">
@@ -3444,23 +3432,23 @@
       <c r="C25" s="10">
         <v>1.125</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="E25" s="31" t="s">
+      <c r="E25" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="F25" s="31" t="s">
+      <c r="F25" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="G25" s="31" t="s">
+      <c r="G25" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="H25" s="31" t="s">
+      <c r="H25" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="I25" s="39"/>
-      <c r="J25" s="40"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="49"/>
     </row>
     <row r="26" spans="2:10" ht="17.25" thickBot="1">
       <c r="B26" s="23">
@@ -3469,39 +3457,22 @@
       <c r="C26" s="24">
         <v>1.1666666666666701</v>
       </c>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="42"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="51"/>
     </row>
     <row r="27" spans="2:10" ht="17.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="L2:R2"/>
-    <mergeCell ref="L3:R5"/>
-    <mergeCell ref="L6:R8"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="D8:D16"/>
-    <mergeCell ref="E8:E16"/>
-    <mergeCell ref="F8:F16"/>
-    <mergeCell ref="G8:G16"/>
-    <mergeCell ref="H8:H16"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="J12:J16"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="I12:I16"/>
+    <mergeCell ref="D18:D20"/>
     <mergeCell ref="I24:J26"/>
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="J21:J23"/>
@@ -3518,11 +3489,28 @@
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="F23:F24"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="I12:I16"/>
-    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="L3:R5"/>
+    <mergeCell ref="L6:R8"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="D8:D16"/>
+    <mergeCell ref="E8:E16"/>
+    <mergeCell ref="F8:F16"/>
+    <mergeCell ref="G8:G16"/>
+    <mergeCell ref="H8:H16"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="J12:J16"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3530,7 +3518,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
     <pageSetUpPr fitToPage="1"/>
@@ -3793,13 +3781,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열의 이 머리글 아래에 메모를 입력합니다." sqref="G4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열의 이 머리글 아래에 기한 날짜를 입력합니다." sqref="E4:F4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열의 이 머리글 아래에 프로젝트 단계를 입력합니다." sqref="D4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열의 이 머리글 아래에 완료율을 입력합니다. 완료율을 보여 주는 데이터 막대가 각 행에 자동으로 업데이트됩니다. 특정 항목을 찾으려면 머리글 필터를 사용하세요." sqref="B4:C4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="아래 표에 프로젝트 1에 대한 세부 정보를 입력합니다." sqref="B3:G3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에는 워크시트의 제목이 표시됩니다. D3 셀에 이 프로젝트를 완료할 사람 이름을 입력하고 D4 셀에 최종 기한 날짜를 입력합니다. B7 셀에서 시작하는 표에 프로젝트 세부 정보를 입력합니다." sqref="B1:C1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 통합 문서에 프로젝트에 대한 할 일 모음을 작성합니다. 이 워크시트에 프로젝트 1에 대한 프로젝트 세부 정보를 입력하고 다음 워크시트에 프로젝트 2 및 프로젝트 3에 대한 세부 정보를 입력합니다." sqref="A1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열의 이 머리글 아래에 메모를 입력합니다." sqref="G4" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열의 이 머리글 아래에 기한 날짜를 입력합니다." sqref="E4:F4" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열의 이 머리글 아래에 프로젝트 단계를 입력합니다." sqref="D4" xr:uid="{00000000-0002-0000-0100-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열의 이 머리글 아래에 완료율을 입력합니다. 완료율을 보여 주는 데이터 막대가 각 행에 자동으로 업데이트됩니다. 특정 항목을 찾으려면 머리글 필터를 사용하세요." sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="아래 표에 프로젝트 1에 대한 세부 정보를 입력합니다." sqref="B3:G3" xr:uid="{00000000-0002-0000-0100-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에는 워크시트의 제목이 표시됩니다. D3 셀에 이 프로젝트를 완료할 사람 이름을 입력하고 D4 셀에 최종 기한 날짜를 입력합니다. B7 셀에서 시작하는 표에 프로젝트 세부 정보를 입력합니다." sqref="B1:C1" xr:uid="{00000000-0002-0000-0100-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 통합 문서에 프로젝트에 대한 할 일 모음을 작성합니다. 이 워크시트에 프로젝트 1에 대한 프로젝트 세부 정보를 입력하고 다음 워크시트에 프로젝트 2 및 프로젝트 3에 대한 세부 정보를 입력합니다." sqref="A1" xr:uid="{00000000-0002-0000-0100-000006000000}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
@@ -3814,7 +3802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFED394"/>
     <pageSetUpPr fitToPage="1"/>
@@ -4039,13 +4027,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 통합 문서에 프로젝트에 대한 할 일 모음을 작성합니다. 이 워크시트에 프로젝트 1에 대한 프로젝트 세부 정보를 입력하고 다음 워크시트에 프로젝트 2 및 프로젝트 3에 대한 세부 정보를 입력합니다." sqref="A1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에는 워크시트의 제목이 표시됩니다. D3 셀에 이 프로젝트를 완료할 사람 이름을 입력하고 D4 셀에 최종 기한 날짜를 입력합니다. B7 셀에서 시작하는 표에 프로젝트 세부 정보를 입력합니다." sqref="B1:C1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="아래 표에 프로젝트 1에 대한 세부 정보를 입력합니다." sqref="B3:G3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열의 이 머리글 아래에 완료율을 입력합니다. 완료율을 보여 주는 데이터 막대가 각 행에 자동으로 업데이트됩니다. 특정 항목을 찾으려면 머리글 필터를 사용하세요." sqref="B4:C4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열의 이 머리글 아래에 프로젝트 단계를 입력합니다." sqref="D4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열의 이 머리글 아래에 기한 날짜를 입력합니다." sqref="E4:F4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열의 이 머리글 아래에 메모를 입력합니다." sqref="G4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 통합 문서에 프로젝트에 대한 할 일 모음을 작성합니다. 이 워크시트에 프로젝트 1에 대한 프로젝트 세부 정보를 입력하고 다음 워크시트에 프로젝트 2 및 프로젝트 3에 대한 세부 정보를 입력합니다." sqref="A1" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에는 워크시트의 제목이 표시됩니다. D3 셀에 이 프로젝트를 완료할 사람 이름을 입력하고 D4 셀에 최종 기한 날짜를 입력합니다. B7 셀에서 시작하는 표에 프로젝트 세부 정보를 입력합니다." sqref="B1:C1" xr:uid="{00000000-0002-0000-0200-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="아래 표에 프로젝트 1에 대한 세부 정보를 입력합니다." sqref="B3:G3" xr:uid="{00000000-0002-0000-0200-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열의 이 머리글 아래에 완료율을 입력합니다. 완료율을 보여 주는 데이터 막대가 각 행에 자동으로 업데이트됩니다. 특정 항목을 찾으려면 머리글 필터를 사용하세요." sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열의 이 머리글 아래에 프로젝트 단계를 입력합니다." sqref="D4" xr:uid="{00000000-0002-0000-0200-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열의 이 머리글 아래에 기한 날짜를 입력합니다." sqref="E4:F4" xr:uid="{00000000-0002-0000-0200-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열의 이 머리글 아래에 메모를 입력합니다." sqref="G4" xr:uid="{00000000-0002-0000-0200-000006000000}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
@@ -4060,7 +4048,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FF6699FF"/>
     <pageSetUpPr fitToPage="1"/>
@@ -4279,13 +4267,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 통합 문서에 프로젝트에 대한 할 일 모음을 작성합니다. 이 워크시트에 프로젝트 1에 대한 프로젝트 세부 정보를 입력하고 다음 워크시트에 프로젝트 2 및 프로젝트 3에 대한 세부 정보를 입력합니다." sqref="A1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에는 워크시트의 제목이 표시됩니다. D3 셀에 이 프로젝트를 완료할 사람 이름을 입력하고 D4 셀에 최종 기한 날짜를 입력합니다. B7 셀에서 시작하는 표에 프로젝트 세부 정보를 입력합니다." sqref="B1:C1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="아래 표에 프로젝트 1에 대한 세부 정보를 입력합니다." sqref="B3:G3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열의 이 머리글 아래에 완료율을 입력합니다. 완료율을 보여 주는 데이터 막대가 각 행에 자동으로 업데이트됩니다. 특정 항목을 찾으려면 머리글 필터를 사용하세요." sqref="B4:C4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열의 이 머리글 아래에 프로젝트 단계를 입력합니다." sqref="D4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열의 이 머리글 아래에 기한 날짜를 입력합니다." sqref="E4:F4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열의 이 머리글 아래에 메모를 입력합니다." sqref="G4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 통합 문서에 프로젝트에 대한 할 일 모음을 작성합니다. 이 워크시트에 프로젝트 1에 대한 프로젝트 세부 정보를 입력하고 다음 워크시트에 프로젝트 2 및 프로젝트 3에 대한 세부 정보를 입력합니다." sqref="A1" xr:uid="{00000000-0002-0000-0300-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에는 워크시트의 제목이 표시됩니다. D3 셀에 이 프로젝트를 완료할 사람 이름을 입력하고 D4 셀에 최종 기한 날짜를 입력합니다. B7 셀에서 시작하는 표에 프로젝트 세부 정보를 입력합니다." sqref="B1:C1" xr:uid="{00000000-0002-0000-0300-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="아래 표에 프로젝트 1에 대한 세부 정보를 입력합니다." sqref="B3:G3" xr:uid="{00000000-0002-0000-0300-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열의 이 머리글 아래에 완료율을 입력합니다. 완료율을 보여 주는 데이터 막대가 각 행에 자동으로 업데이트됩니다. 특정 항목을 찾으려면 머리글 필터를 사용하세요." sqref="B4:C4" xr:uid="{00000000-0002-0000-0300-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열의 이 머리글 아래에 프로젝트 단계를 입력합니다." sqref="D4" xr:uid="{00000000-0002-0000-0300-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열의 이 머리글 아래에 기한 날짜를 입력합니다." sqref="E4:F4" xr:uid="{00000000-0002-0000-0300-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열의 이 머리글 아래에 메모를 입력합니다." sqref="G4" xr:uid="{00000000-0002-0000-0300-000006000000}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
@@ -4300,7 +4288,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FFBCFFB9"/>
     <pageSetUpPr fitToPage="1"/>
@@ -4519,13 +4507,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 통합 문서에 프로젝트에 대한 할 일 모음을 작성합니다. 이 워크시트에 프로젝트 1에 대한 프로젝트 세부 정보를 입력하고 다음 워크시트에 프로젝트 2 및 프로젝트 3에 대한 세부 정보를 입력합니다." sqref="A1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에는 워크시트의 제목이 표시됩니다. D3 셀에 이 프로젝트를 완료할 사람 이름을 입력하고 D4 셀에 최종 기한 날짜를 입력합니다. B7 셀에서 시작하는 표에 프로젝트 세부 정보를 입력합니다." sqref="B1:C1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="아래 표에 프로젝트 1에 대한 세부 정보를 입력합니다." sqref="B3:G3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열의 이 머리글 아래에 완료율을 입력합니다. 완료율을 보여 주는 데이터 막대가 각 행에 자동으로 업데이트됩니다. 특정 항목을 찾으려면 머리글 필터를 사용하세요." sqref="B4:C4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열의 이 머리글 아래에 프로젝트 단계를 입력합니다." sqref="D4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열의 이 머리글 아래에 기한 날짜를 입력합니다." sqref="E4:F4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열의 이 머리글 아래에 메모를 입력합니다." sqref="G4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 통합 문서에 프로젝트에 대한 할 일 모음을 작성합니다. 이 워크시트에 프로젝트 1에 대한 프로젝트 세부 정보를 입력하고 다음 워크시트에 프로젝트 2 및 프로젝트 3에 대한 세부 정보를 입력합니다." sqref="A1" xr:uid="{00000000-0002-0000-0400-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에는 워크시트의 제목이 표시됩니다. D3 셀에 이 프로젝트를 완료할 사람 이름을 입력하고 D4 셀에 최종 기한 날짜를 입력합니다. B7 셀에서 시작하는 표에 프로젝트 세부 정보를 입력합니다." sqref="B1:C1" xr:uid="{00000000-0002-0000-0400-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="아래 표에 프로젝트 1에 대한 세부 정보를 입력합니다." sqref="B3:G3" xr:uid="{00000000-0002-0000-0400-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열의 이 머리글 아래에 완료율을 입력합니다. 완료율을 보여 주는 데이터 막대가 각 행에 자동으로 업데이트됩니다. 특정 항목을 찾으려면 머리글 필터를 사용하세요." sqref="B4:C4" xr:uid="{00000000-0002-0000-0400-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열의 이 머리글 아래에 프로젝트 단계를 입력합니다." sqref="D4" xr:uid="{00000000-0002-0000-0400-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열의 이 머리글 아래에 기한 날짜를 입력합니다." sqref="E4:F4" xr:uid="{00000000-0002-0000-0400-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 열의 이 머리글 아래에 메모를 입력합니다." sqref="G4" xr:uid="{00000000-0002-0000-0400-000006000000}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
